--- a/gdcdictionary/tsvs/nodes_schema_midrc.xlsx
+++ b/gdcdictionary/tsvs/nodes_schema_midrc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="526">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -138,6 +138,15 @@
     <t>medication</t>
   </si>
   <si>
+    <t>mr_exam</t>
+  </si>
+  <si>
+    <t>mr_image</t>
+  </si>
+  <si>
+    <t>mr_series</t>
+  </si>
+  <si>
     <t>procedure</t>
   </si>
   <si>
@@ -201,6 +210,15 @@
     <t>Medication</t>
   </si>
   <si>
+    <t>Magnetic Resonance Exam</t>
+  </si>
+  <si>
+    <t>MR Image</t>
+  </si>
+  <si>
+    <t>MR Series</t>
+  </si>
+  <si>
     <t>Procedure</t>
   </si>
   <si>
@@ -292,6 +310,15 @@
   </si>
   <si>
     <t>Information related to medication prescribed, dispensed or administered to the case.</t>
+  </si>
+  <si>
+    <t>Information related to an imaging exam during which magnetic resonance (MR) images are captured.</t>
+  </si>
+  <si>
+    <t>A Magnetic Resonance (MR) imaging file.</t>
+  </si>
+  <si>
+    <t>Information related to an imaging series to which one or more MR (Magnetic Resonance) images belong.</t>
   </si>
   <si>
     <t>Activities or processes ordered by and/or carried out by a healthcare provider on the patient with diagnostic and/or therapeutic purposes.</t>
@@ -367,6 +394,9 @@
     <t>submitter_id, type</t>
   </si>
   <si>
+    <t>submitter_id, type, mr_exams</t>
+  </si>
+  <si>
     <t>name, dbgap_accession_number</t>
   </si>
   <si>
@@ -415,6 +445,12 @@
     <t>conditions, procedures</t>
   </si>
   <si>
+    <t>core_metadata_collections, mr_series</t>
+  </si>
+  <si>
+    <t>mr_exams</t>
+  </si>
+  <si>
     <t>conditions, cases</t>
   </si>
   <si>
@@ -448,6 +484,9 @@
     <t>medications</t>
   </si>
   <si>
+    <t>mr_images, mr_images</t>
+  </si>
+  <si>
     <t>procedures, procedures</t>
   </si>
   <si>
@@ -496,6 +535,9 @@
     <t>condition, procedure</t>
   </si>
   <si>
+    <t>core_metadata_collection, mr_series</t>
+  </si>
+  <si>
     <t>condition, case</t>
   </si>
   <si>
@@ -820,6 +862,12 @@
     <t>days_to_medication_end</t>
   </si>
   <si>
+    <t>exam_description</t>
+  </si>
+  <si>
+    <t>exam_notes</t>
+  </si>
+  <si>
     <t>test_method</t>
   </si>
   <si>
@@ -865,12 +913,6 @@
     <t>support_id</t>
   </si>
   <si>
-    <t>exam_description</t>
-  </si>
-  <si>
-    <t>exam_notes</t>
-  </si>
-  <si>
     <t>view_position</t>
   </si>
   <si>
@@ -1187,6 +1229,12 @@
   </si>
   <si>
     <t>The number of days from the index date to the date the case stopped a specific medication.</t>
+  </si>
+  <si>
+    <t>General description of the radiography exam.</t>
+  </si>
+  <si>
+    <t>Notes made by the radiologist during the radiography exam.</t>
   </si>
   <si>
     <t>The test method used to confirm a condition or produce a measurement.</t>
@@ -1250,12 +1298,6 @@
     <t xml:space="preserve">The possible states a project can be in. All but 'open' are
 equivalent to some type of locked state.
 </t>
-  </si>
-  <si>
-    <t>General description of the radiography exam.</t>
-  </si>
-  <si>
-    <t>Notes made by the radiologist during the radiography exam.</t>
   </si>
   <si>
     <t>(0018, 5101) View Position</t>
@@ -1943,7 +1985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2034,61 +2076,61 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="R2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="S2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="T2" t="s">
         <v>34</v>
       </c>
       <c r="U2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="V2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Y2" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -2099,61 +2141,61 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="R3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="S3" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="T3" t="s">
         <v>26</v>
       </c>
       <c r="U3" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="V3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Y3" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2164,61 +2206,61 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O4" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="R4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="S4" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="V4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Y4" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -2229,67 +2271,67 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S5" t="s">
+        <v>162</v>
+      </c>
+      <c r="T5" t="s">
+        <v>167</v>
+      </c>
+      <c r="U5" t="s">
+        <v>177</v>
+      </c>
+      <c r="V5" t="s">
+        <v>180</v>
+      </c>
+      <c r="W5" t="s">
+        <v>108</v>
+      </c>
+      <c r="X5" t="s">
         <v>109</v>
       </c>
-      <c r="P5" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>124</v>
-      </c>
-      <c r="R5" t="s">
-        <v>137</v>
-      </c>
-      <c r="S5" t="s">
-        <v>149</v>
-      </c>
-      <c r="T5" t="s">
-        <v>154</v>
-      </c>
-      <c r="U5" t="s">
-        <v>163</v>
-      </c>
-      <c r="V5" t="s">
-        <v>166</v>
-      </c>
-      <c r="W5" t="s">
-        <v>99</v>
-      </c>
-      <c r="X5" t="s">
-        <v>100</v>
-      </c>
       <c r="Y5" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -2300,61 +2342,61 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O6" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q6" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="R6" t="s">
         <v>30</v>
       </c>
       <c r="S6" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="T6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="U6" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="V6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Y6" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -2365,67 +2407,67 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R7" t="s">
+        <v>150</v>
+      </c>
+      <c r="S7" t="s">
+        <v>162</v>
+      </c>
+      <c r="T7" t="s">
+        <v>168</v>
+      </c>
+      <c r="U7" t="s">
+        <v>177</v>
+      </c>
+      <c r="V7" t="s">
+        <v>180</v>
+      </c>
+      <c r="W7" t="s">
+        <v>108</v>
+      </c>
+      <c r="X7" t="s">
         <v>109</v>
       </c>
-      <c r="P7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>126</v>
-      </c>
-      <c r="R7" t="s">
-        <v>138</v>
-      </c>
-      <c r="S7" t="s">
-        <v>149</v>
-      </c>
-      <c r="T7" t="s">
-        <v>155</v>
-      </c>
-      <c r="U7" t="s">
-        <v>163</v>
-      </c>
-      <c r="V7" t="s">
-        <v>166</v>
-      </c>
-      <c r="W7" t="s">
-        <v>99</v>
-      </c>
-      <c r="X7" t="s">
-        <v>100</v>
-      </c>
       <c r="Y7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -2436,61 +2478,61 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q8" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="R8" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="S8" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="T8" t="s">
         <v>37</v>
       </c>
       <c r="U8" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="V8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -2501,61 +2543,61 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="R9" t="s">
         <v>33</v>
       </c>
       <c r="S9" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="T9" t="s">
         <v>32</v>
       </c>
       <c r="U9" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="V9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -2566,58 +2608,58 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P10" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q10" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="R10" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="S10" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U10" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="V10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -2628,67 +2670,67 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>139</v>
+      </c>
+      <c r="R11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T11" t="s">
+        <v>169</v>
+      </c>
+      <c r="U11" t="s">
+        <v>177</v>
+      </c>
+      <c r="V11" t="s">
+        <v>180</v>
+      </c>
+      <c r="W11" t="s">
+        <v>108</v>
+      </c>
+      <c r="X11" t="s">
         <v>109</v>
       </c>
-      <c r="P11" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>129</v>
-      </c>
-      <c r="R11" t="s">
-        <v>139</v>
-      </c>
-      <c r="S11" t="s">
-        <v>149</v>
-      </c>
-      <c r="T11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U11" t="s">
-        <v>163</v>
-      </c>
-      <c r="V11" t="s">
-        <v>166</v>
-      </c>
-      <c r="W11" t="s">
-        <v>99</v>
-      </c>
-      <c r="X11" t="s">
-        <v>100</v>
-      </c>
       <c r="Y11" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -2699,61 +2741,61 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="R12" t="s">
         <v>36</v>
       </c>
       <c r="S12" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="T12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="U12" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="V12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Y12" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2764,61 +2806,61 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L13" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N13" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O13" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q13" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="R13" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="T13" t="s">
         <v>26</v>
       </c>
       <c r="U13" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="V13" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Y13" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2829,67 +2871,67 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N14" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O14" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P14" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q14" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="R14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="S14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="T14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="U14" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="V14" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="W14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="X14" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Y14" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -2900,61 +2942,61 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O15" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q15" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="R15" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="S15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="T15" t="s">
         <v>26</v>
       </c>
       <c r="U15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="V15" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -2965,67 +3007,61 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N16" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O16" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q16" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="R16" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="S16" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="T16" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="U16" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="V16" t="s">
-        <v>166</v>
-      </c>
-      <c r="W16" t="s">
-        <v>99</v>
-      </c>
-      <c r="X16" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -3036,37 +3072,67 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K17" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="N17" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>128</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>141</v>
+      </c>
+      <c r="R17" t="s">
+        <v>154</v>
+      </c>
+      <c r="S17" t="s">
+        <v>162</v>
+      </c>
+      <c r="T17" t="s">
+        <v>171</v>
+      </c>
+      <c r="U17" t="s">
+        <v>177</v>
+      </c>
+      <c r="V17" t="s">
+        <v>180</v>
+      </c>
+      <c r="W17" t="s">
+        <v>108</v>
+      </c>
+      <c r="X17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -3077,55 +3143,61 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N18" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O18" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="Q18" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="R18" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="T18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U18" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="V18" t="s">
-        <v>100</v>
+        <v>109</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -3136,61 +3208,67 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K19" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N19" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q19" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="R19" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="S19" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="T19" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="U19" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="V19" t="s">
-        <v>100</v>
+        <v>180</v>
+      </c>
+      <c r="W19" t="s">
+        <v>108</v>
+      </c>
+      <c r="X19" t="s">
+        <v>109</v>
       </c>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -3201,61 +3279,37 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="N20" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="O20" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="P20" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>121</v>
-      </c>
-      <c r="R20" t="s">
-        <v>143</v>
-      </c>
-      <c r="S20" t="s">
-        <v>147</v>
-      </c>
-      <c r="T20" t="s">
-        <v>34</v>
-      </c>
-      <c r="U20" t="s">
-        <v>161</v>
-      </c>
-      <c r="V20" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -3266,67 +3320,55 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N21" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>144</v>
+      </c>
+      <c r="R21" t="s">
+        <v>133</v>
+      </c>
+      <c r="S21" t="s">
+        <v>159</v>
+      </c>
+      <c r="T21" t="s">
+        <v>44</v>
+      </c>
+      <c r="U21" t="s">
+        <v>176</v>
+      </c>
+      <c r="V21" t="s">
         <v>109</v>
-      </c>
-      <c r="P21" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>133</v>
-      </c>
-      <c r="R21" t="s">
-        <v>144</v>
-      </c>
-      <c r="S21" t="s">
-        <v>152</v>
-      </c>
-      <c r="T21" t="s">
-        <v>159</v>
-      </c>
-      <c r="U21" t="s">
-        <v>164</v>
-      </c>
-      <c r="V21" t="s">
-        <v>167</v>
-      </c>
-      <c r="W21" t="s">
-        <v>99</v>
-      </c>
-      <c r="X21" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -3337,67 +3379,268 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K22" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="N22" t="s">
+        <v>110</v>
+      </c>
+      <c r="O22" t="s">
+        <v>120</v>
+      </c>
+      <c r="P22" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>137</v>
+      </c>
+      <c r="R22" t="s">
+        <v>135</v>
+      </c>
+      <c r="S22" t="s">
+        <v>160</v>
+      </c>
+      <c r="T22" t="s">
+        <v>37</v>
+      </c>
+      <c r="U22" t="s">
+        <v>176</v>
+      </c>
+      <c r="V22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" t="s">
         <v>105</v>
       </c>
-      <c r="O22" t="s">
-        <v>117</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="K23" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23" t="s">
+        <v>110</v>
+      </c>
+      <c r="O23" t="s">
+        <v>115</v>
+      </c>
+      <c r="P23" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>131</v>
+      </c>
+      <c r="R23" t="s">
+        <v>156</v>
+      </c>
+      <c r="S23" t="s">
+        <v>160</v>
+      </c>
+      <c r="T23" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23" t="s">
+        <v>175</v>
+      </c>
+      <c r="V23" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N24" t="s">
+        <v>111</v>
+      </c>
+      <c r="O24" t="s">
         <v>118</v>
       </c>
-      <c r="Q22" t="s">
-        <v>134</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="P24" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q24" t="s">
         <v>145</v>
       </c>
-      <c r="S22" t="s">
-        <v>153</v>
-      </c>
-      <c r="T22" t="s">
-        <v>160</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="R24" t="s">
+        <v>157</v>
+      </c>
+      <c r="S24" t="s">
         <v>165</v>
       </c>
-      <c r="V22" t="s">
-        <v>168</v>
-      </c>
-      <c r="W22" t="s">
-        <v>99</v>
-      </c>
-      <c r="X22" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>170</v>
+      <c r="T24" t="s">
+        <v>173</v>
+      </c>
+      <c r="U24" t="s">
+        <v>178</v>
+      </c>
+      <c r="V24" t="s">
+        <v>181</v>
+      </c>
+      <c r="W24" t="s">
+        <v>108</v>
+      </c>
+      <c r="X24" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25" t="s">
+        <v>114</v>
+      </c>
+      <c r="O25" t="s">
+        <v>127</v>
+      </c>
+      <c r="P25" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>146</v>
+      </c>
+      <c r="R25" t="s">
+        <v>158</v>
+      </c>
+      <c r="S25" t="s">
+        <v>166</v>
+      </c>
+      <c r="T25" t="s">
+        <v>174</v>
+      </c>
+      <c r="U25" t="s">
+        <v>179</v>
+      </c>
+      <c r="V25" t="s">
+        <v>182</v>
+      </c>
+      <c r="W25" t="s">
+        <v>108</v>
+      </c>
+      <c r="X25" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3433,15 +3676,21 @@
     <hyperlink ref="A16" r:id="rId29" location=""/>
     <hyperlink ref="F16" r:id="rId30"/>
     <hyperlink ref="A17" r:id="rId31" location=""/>
-    <hyperlink ref="A18" r:id="rId32" location=""/>
-    <hyperlink ref="A19" r:id="rId33" location=""/>
-    <hyperlink ref="F19" r:id="rId34"/>
-    <hyperlink ref="A20" r:id="rId35" location=""/>
-    <hyperlink ref="F20" r:id="rId36"/>
-    <hyperlink ref="A21" r:id="rId37" location=""/>
-    <hyperlink ref="F21" r:id="rId38"/>
+    <hyperlink ref="F17" r:id="rId32"/>
+    <hyperlink ref="A18" r:id="rId33" location=""/>
+    <hyperlink ref="F18" r:id="rId34"/>
+    <hyperlink ref="A19" r:id="rId35" location=""/>
+    <hyperlink ref="F19" r:id="rId36"/>
+    <hyperlink ref="A20" r:id="rId37" location=""/>
+    <hyperlink ref="A21" r:id="rId38" location=""/>
     <hyperlink ref="A22" r:id="rId39" location=""/>
     <hyperlink ref="F22" r:id="rId40"/>
+    <hyperlink ref="A23" r:id="rId41" location=""/>
+    <hyperlink ref="F23" r:id="rId42"/>
+    <hyperlink ref="A24" r:id="rId43" location=""/>
+    <hyperlink ref="F24" r:id="rId44"/>
+    <hyperlink ref="A25" r:id="rId45" location=""/>
+    <hyperlink ref="F25" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3449,7 +3698,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K168"/>
+  <dimension ref="A1:K187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3457,13 +3706,13 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -3472,22 +3721,22 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3495,13 +3744,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="E2" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3509,13 +3758,13 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="E3" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3523,13 +3772,13 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="E4" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3537,13 +3786,13 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="E5" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3551,13 +3800,13 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="E6" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3565,13 +3814,13 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="E7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3579,13 +3828,13 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="E8" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3593,13 +3842,13 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="E9" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3607,13 +3856,13 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="E10" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3621,13 +3870,13 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="E11" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3635,13 +3884,13 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="E12" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3649,13 +3898,13 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="E13" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3663,13 +3912,13 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="E14" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3677,10 +3926,10 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3688,13 +3937,13 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D16" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="E16" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3702,13 +3951,13 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="E17" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3716,13 +3965,13 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="D18" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="E18" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3730,13 +3979,13 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="E19" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3744,13 +3993,13 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="E20" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3758,13 +4007,13 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D21" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="E21" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3772,13 +4021,13 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E22" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3786,13 +4035,13 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="E23" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3800,13 +4049,13 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="E24" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3814,13 +4063,13 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="E25" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3828,13 +4077,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C26" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="E26" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3842,13 +4091,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E27" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3856,13 +4105,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D28" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="E28" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3870,13 +4119,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D29" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="E29" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3884,13 +4133,13 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D30" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="E30" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3898,13 +4147,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D31" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="E31" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3912,13 +4161,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D32" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="E32" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3926,13 +4175,13 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D33" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="E33" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3940,13 +4189,13 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="D34" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="E34" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3954,13 +4203,13 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D35" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="E35" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3968,13 +4217,13 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D36" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="E36" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3982,13 +4231,13 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D37" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="E37" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3996,13 +4245,13 @@
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D38" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="E38" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4010,13 +4259,13 @@
         <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D39" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="E39" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4024,13 +4273,13 @@
         <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="D40" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="E40" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4038,13 +4287,13 @@
         <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C41" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="E41" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4052,13 +4301,13 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="E42" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4066,13 +4315,13 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C43" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E43" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4080,13 +4329,13 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D44" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="E44" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4094,13 +4343,13 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D45" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="E45" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4108,13 +4357,13 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D46" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="E46" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4122,13 +4371,13 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="D47" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="E47" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4136,13 +4385,13 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D48" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="E48" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4150,13 +4399,13 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D49" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="E49" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4164,13 +4413,13 @@
         <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="D50" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="E50" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4178,13 +4427,13 @@
         <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D51" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="E51" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4192,13 +4441,13 @@
         <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D52" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="E52" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4206,13 +4455,13 @@
         <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D53" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="E53" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4220,13 +4469,13 @@
         <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D54" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="E54" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4234,13 +4483,13 @@
         <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="D55" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="E55" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4248,13 +4497,13 @@
         <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D56" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="E56" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4262,13 +4511,13 @@
         <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D57" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="E57" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4276,13 +4525,13 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D58" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="E58" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4290,13 +4539,13 @@
         <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D59" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="E59" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4304,13 +4553,13 @@
         <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D60" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="E60" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4318,13 +4567,13 @@
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D61" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="E61" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4332,13 +4581,13 @@
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D62" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="E62" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4346,13 +4595,13 @@
         <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D63" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="E63" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4360,10 +4609,10 @@
         <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C64" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4371,10 +4620,10 @@
         <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4382,10 +4631,10 @@
         <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C66" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4393,10 +4642,10 @@
         <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C67" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4404,13 +4653,13 @@
         <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="D68" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="E68" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4418,13 +4667,13 @@
         <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D69" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="E69" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4432,10 +4681,10 @@
         <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C70" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4443,13 +4692,13 @@
         <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="D71" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="E71" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4457,13 +4706,13 @@
         <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D72" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E72" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4471,13 +4720,13 @@
         <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="D73" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="E73" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4485,13 +4734,13 @@
         <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="D74" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="E74" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4499,13 +4748,13 @@
         <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="D75" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="E75" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4513,13 +4762,13 @@
         <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="D76" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="E76" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4527,13 +4776,13 @@
         <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="D77" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E77" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4541,13 +4790,13 @@
         <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="D78" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="E78" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4555,13 +4804,13 @@
         <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="D79" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="E79" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4569,13 +4818,13 @@
         <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D80" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="E80" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4583,13 +4832,13 @@
         <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="D81" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="E81" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4597,13 +4846,13 @@
         <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D82" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="E82" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4611,13 +4860,13 @@
         <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D83" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="E83" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4625,13 +4874,13 @@
         <v>34</v>
       </c>
       <c r="B84" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D84" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="E84" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4639,13 +4888,13 @@
         <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C85" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="E85" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4653,13 +4902,13 @@
         <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C86" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="E86" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4667,13 +4916,13 @@
         <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C87" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="E87" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4681,13 +4930,13 @@
         <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D88" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="E88" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4695,13 +4944,13 @@
         <v>36</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D89" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="E89" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4709,13 +4958,13 @@
         <v>36</v>
       </c>
       <c r="B90" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="D90" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="E90" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4723,13 +4972,13 @@
         <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D91" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="E91" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4737,13 +4986,13 @@
         <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D92" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="E92" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4751,13 +5000,13 @@
         <v>36</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D93" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="E93" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4765,13 +5014,13 @@
         <v>36</v>
       </c>
       <c r="B94" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D94" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="E94" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4779,13 +5028,13 @@
         <v>36</v>
       </c>
       <c r="B95" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D95" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="E95" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4793,13 +5042,13 @@
         <v>36</v>
       </c>
       <c r="B96" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="D96" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="E96" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4807,13 +5056,13 @@
         <v>36</v>
       </c>
       <c r="B97" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="D97" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="E97" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4821,13 +5070,13 @@
         <v>36</v>
       </c>
       <c r="B98" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D98" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="E98" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4835,13 +5084,13 @@
         <v>36</v>
       </c>
       <c r="B99" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D99" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="E99" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4849,13 +5098,13 @@
         <v>36</v>
       </c>
       <c r="B100" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D100" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="E100" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4863,13 +5112,13 @@
         <v>36</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D101" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="E101" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4877,13 +5126,13 @@
         <v>37</v>
       </c>
       <c r="B102" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="D102" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="E102" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4891,13 +5140,13 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="D103" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="E103" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4905,13 +5154,13 @@
         <v>37</v>
       </c>
       <c r="B104" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="D104" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="E104" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4919,13 +5168,13 @@
         <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="D105" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="E105" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="G105">
         <v>89</v>
@@ -4939,13 +5188,13 @@
         <v>37</v>
       </c>
       <c r="B106" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="D106" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="E106" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4953,13 +5202,13 @@
         <v>37</v>
       </c>
       <c r="B107" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D107" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="E107" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4967,13 +5216,13 @@
         <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D108" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="E108" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4981,13 +5230,13 @@
         <v>37</v>
       </c>
       <c r="B109" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D109" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="E109" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4995,13 +5244,13 @@
         <v>37</v>
       </c>
       <c r="B110" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D110" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="E110" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5009,13 +5258,13 @@
         <v>37</v>
       </c>
       <c r="B111" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D111" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="E111" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5023,559 +5272,550 @@
         <v>38</v>
       </c>
       <c r="B112" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D112" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="E112" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>38</v>
       </c>
       <c r="B113" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D113" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="E113" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>38</v>
       </c>
       <c r="B114" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="D114" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="E114" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="D115" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="E115" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="D116" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="E116" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D117" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="E117" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>39</v>
       </c>
       <c r="B118" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="D118" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="E118" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>39</v>
       </c>
       <c r="B119" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="D119" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="E119" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>40</v>
       </c>
       <c r="B120" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="D120" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="E120" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B121" t="s">
-        <v>230</v>
+        <v>281</v>
+      </c>
+      <c r="D121" t="s">
+        <v>404</v>
       </c>
       <c r="E121" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="C122" t="s">
-        <v>307</v>
-      </c>
-      <c r="I122" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>318</v>
+      </c>
+      <c r="E122" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>267</v>
-      </c>
-      <c r="D123" t="s">
-        <v>390</v>
+        <v>218</v>
+      </c>
+      <c r="C123" t="s">
+        <v>319</v>
       </c>
       <c r="E123" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>268</v>
-      </c>
-      <c r="D124" t="s">
-        <v>391</v>
+        <v>206</v>
+      </c>
+      <c r="C124" t="s">
+        <v>320</v>
       </c>
       <c r="E124" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="D125" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="E125" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>42</v>
       </c>
       <c r="B126" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="D126" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="E126" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>42</v>
       </c>
       <c r="B127" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D127" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E127" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>42</v>
       </c>
       <c r="B128" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="D128" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="E128" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>42</v>
       </c>
       <c r="B129" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D129" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E129" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>42</v>
       </c>
       <c r="B130" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D130" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="E130" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>42</v>
       </c>
       <c r="B131" t="s">
-        <v>103</v>
-      </c>
-      <c r="C131" t="s">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="D131" t="s">
-        <v>398</v>
-      </c>
-      <c r="I131" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>350</v>
+      </c>
+      <c r="E131" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>42</v>
       </c>
       <c r="B132" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="D132" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="E132" t="s">
-        <v>428</v>
-      </c>
-      <c r="J132" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>42</v>
       </c>
       <c r="B133" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="D133" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="E133" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>42</v>
       </c>
       <c r="B134" t="s">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="D134" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="E134" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>42</v>
       </c>
       <c r="B135" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="D135" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="E135" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>42</v>
       </c>
       <c r="B136" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="D136" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="E136" t="s">
-        <v>430</v>
-      </c>
-      <c r="K136" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>42</v>
       </c>
       <c r="B137" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="D137" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="E137" t="s">
-        <v>430</v>
-      </c>
-      <c r="K137" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>42</v>
       </c>
       <c r="B138" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D138" t="s">
+        <v>357</v>
+      </c>
+      <c r="E138" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>43</v>
+      </c>
+      <c r="B139" t="s">
+        <v>282</v>
+      </c>
+      <c r="D139" t="s">
         <v>405</v>
       </c>
-      <c r="E138" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139" t="s">
-        <v>42</v>
-      </c>
-      <c r="B139" t="s">
-        <v>280</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>44</v>
+      </c>
+      <c r="B140" t="s">
+        <v>244</v>
+      </c>
+      <c r="E140" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>44</v>
+      </c>
+      <c r="B141" t="s">
+        <v>112</v>
+      </c>
+      <c r="C141" t="s">
+        <v>321</v>
+      </c>
+      <c r="I141" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>44</v>
+      </c>
+      <c r="B142" t="s">
+        <v>283</v>
+      </c>
+      <c r="D142" t="s">
         <v>406</v>
       </c>
-      <c r="E139" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140" t="s">
-        <v>42</v>
-      </c>
-      <c r="B140" t="s">
-        <v>228</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="E142" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>44</v>
+      </c>
+      <c r="B143" t="s">
+        <v>284</v>
+      </c>
+      <c r="D143" t="s">
         <v>407</v>
       </c>
-      <c r="E140" t="s">
-        <v>427</v>
-      </c>
-      <c r="K140" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141" t="s">
-        <v>42</v>
-      </c>
-      <c r="B141" t="s">
-        <v>230</v>
-      </c>
-      <c r="E141" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142" t="s">
-        <v>43</v>
-      </c>
-      <c r="B142" t="s">
-        <v>281</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="E143" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>45</v>
+      </c>
+      <c r="B144" t="s">
+        <v>285</v>
+      </c>
+      <c r="D144" t="s">
         <v>408</v>
       </c>
-      <c r="E142" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143" t="s">
-        <v>43</v>
-      </c>
-      <c r="B143" t="s">
-        <v>282</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="E144" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" t="s">
+        <v>45</v>
+      </c>
+      <c r="B145" t="s">
+        <v>286</v>
+      </c>
+      <c r="D145" t="s">
         <v>409</v>
       </c>
-      <c r="E143" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144" t="s">
-        <v>43</v>
-      </c>
-      <c r="B144" t="s">
-        <v>283</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="E145" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" t="s">
+        <v>45</v>
+      </c>
+      <c r="B146" t="s">
+        <v>287</v>
+      </c>
+      <c r="D146" t="s">
         <v>410</v>
       </c>
-      <c r="E144" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" t="s">
-        <v>44</v>
-      </c>
-      <c r="B145" t="s">
-        <v>284</v>
-      </c>
-      <c r="C145" t="s">
-        <v>310</v>
-      </c>
-      <c r="E145" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" t="s">
-        <v>44</v>
-      </c>
-      <c r="B146" t="s">
-        <v>285</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" t="s">
+        <v>45</v>
+      </c>
+      <c r="B147" t="s">
+        <v>288</v>
+      </c>
+      <c r="D147" t="s">
         <v>411</v>
       </c>
-      <c r="E146" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" t="s">
-        <v>44</v>
-      </c>
-      <c r="B147" t="s">
-        <v>286</v>
-      </c>
-      <c r="C147" t="s">
-        <v>311</v>
-      </c>
       <c r="E147" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B148" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D148" t="s">
         <v>412</v>
       </c>
       <c r="E148" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B149" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D149" t="s">
         <v>413</v>
       </c>
       <c r="E149" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B150" t="s">
-        <v>289</v>
+        <v>112</v>
+      </c>
+      <c r="C150" t="s">
+        <v>321</v>
       </c>
       <c r="D150" t="s">
         <v>414</v>
       </c>
-      <c r="E150" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="I150" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B151" t="s">
         <v>290</v>
@@ -5584,12 +5824,15 @@
         <v>415</v>
       </c>
       <c r="E151" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>442</v>
+      </c>
+      <c r="J151" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B152" t="s">
         <v>291</v>
@@ -5598,12 +5841,12 @@
         <v>416</v>
       </c>
       <c r="E152" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B153" t="s">
         <v>292</v>
@@ -5612,119 +5855,125 @@
         <v>417</v>
       </c>
       <c r="E153" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B154" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D154" t="s">
         <v>418</v>
       </c>
       <c r="E154" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" t="s">
         <v>45</v>
       </c>
       <c r="B155" t="s">
-        <v>203</v>
-      </c>
-      <c r="C155" t="s">
-        <v>304</v>
+        <v>293</v>
+      </c>
+      <c r="D155" t="s">
+        <v>419</v>
       </c>
       <c r="E155" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>444</v>
+      </c>
+      <c r="K155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" t="s">
         <v>45</v>
       </c>
       <c r="B156" t="s">
-        <v>204</v>
-      </c>
-      <c r="C156" t="s">
-        <v>305</v>
+        <v>294</v>
+      </c>
+      <c r="D156" t="s">
+        <v>420</v>
       </c>
       <c r="E156" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>444</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" t="s">
         <v>45</v>
       </c>
       <c r="B157" t="s">
-        <v>192</v>
-      </c>
-      <c r="C157" t="s">
-        <v>306</v>
+        <v>295</v>
+      </c>
+      <c r="D157" t="s">
+        <v>421</v>
       </c>
       <c r="E157" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" t="s">
         <v>45</v>
       </c>
       <c r="B158" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D158" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E158" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
         <v>45</v>
       </c>
       <c r="B159" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="D159" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E159" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>441</v>
+      </c>
+      <c r="K159" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" t="s">
         <v>45</v>
       </c>
       <c r="B160" t="s">
-        <v>296</v>
-      </c>
-      <c r="D160" t="s">
-        <v>421</v>
+        <v>244</v>
       </c>
       <c r="E160" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B161" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="D161" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="E161" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5732,10 +5981,13 @@
         <v>46</v>
       </c>
       <c r="B162" t="s">
-        <v>230</v>
+        <v>281</v>
+      </c>
+      <c r="D162" t="s">
+        <v>404</v>
       </c>
       <c r="E162" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5743,83 +5995,346 @@
         <v>46</v>
       </c>
       <c r="B163" t="s">
-        <v>203</v>
-      </c>
-      <c r="C163" t="s">
-        <v>304</v>
+        <v>297</v>
+      </c>
+      <c r="D163" t="s">
+        <v>424</v>
       </c>
       <c r="E163" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B164" t="s">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="C164" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="E164" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B165" t="s">
-        <v>204</v>
-      </c>
-      <c r="C165" t="s">
-        <v>305</v>
+        <v>299</v>
+      </c>
+      <c r="D165" t="s">
+        <v>425</v>
       </c>
       <c r="E165" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B166" t="s">
-        <v>298</v>
-      </c>
-      <c r="D166" t="s">
-        <v>423</v>
+        <v>300</v>
+      </c>
+      <c r="C166" t="s">
+        <v>325</v>
       </c>
       <c r="E166" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B167" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D167" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E167" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B168" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D168" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E168" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>47</v>
+      </c>
+      <c r="B169" t="s">
+        <v>303</v>
+      </c>
+      <c r="D169" t="s">
         <v>428</v>
+      </c>
+      <c r="E169" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>47</v>
+      </c>
+      <c r="B170" t="s">
+        <v>304</v>
+      </c>
+      <c r="D170" t="s">
+        <v>429</v>
+      </c>
+      <c r="E170" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>47</v>
+      </c>
+      <c r="B171" t="s">
+        <v>305</v>
+      </c>
+      <c r="D171" t="s">
+        <v>430</v>
+      </c>
+      <c r="E171" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>47</v>
+      </c>
+      <c r="B172" t="s">
+        <v>306</v>
+      </c>
+      <c r="D172" t="s">
+        <v>431</v>
+      </c>
+      <c r="E172" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>47</v>
+      </c>
+      <c r="B173" t="s">
+        <v>307</v>
+      </c>
+      <c r="D173" t="s">
+        <v>432</v>
+      </c>
+      <c r="E173" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>48</v>
+      </c>
+      <c r="B174" t="s">
+        <v>217</v>
+      </c>
+      <c r="C174" t="s">
+        <v>318</v>
+      </c>
+      <c r="E174" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>48</v>
+      </c>
+      <c r="B175" t="s">
+        <v>218</v>
+      </c>
+      <c r="C175" t="s">
+        <v>319</v>
+      </c>
+      <c r="E175" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>48</v>
+      </c>
+      <c r="B176" t="s">
+        <v>206</v>
+      </c>
+      <c r="C176" t="s">
+        <v>320</v>
+      </c>
+      <c r="E176" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>48</v>
+      </c>
+      <c r="B177" t="s">
+        <v>308</v>
+      </c>
+      <c r="D177" t="s">
+        <v>433</v>
+      </c>
+      <c r="E177" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>48</v>
+      </c>
+      <c r="B178" t="s">
+        <v>309</v>
+      </c>
+      <c r="D178" t="s">
+        <v>434</v>
+      </c>
+      <c r="E178" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>48</v>
+      </c>
+      <c r="B179" t="s">
+        <v>310</v>
+      </c>
+      <c r="D179" t="s">
+        <v>435</v>
+      </c>
+      <c r="E179" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>48</v>
+      </c>
+      <c r="B180" t="s">
+        <v>311</v>
+      </c>
+      <c r="D180" t="s">
+        <v>436</v>
+      </c>
+      <c r="E180" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B181" t="s">
+        <v>244</v>
+      </c>
+      <c r="E181" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>49</v>
+      </c>
+      <c r="B182" t="s">
+        <v>217</v>
+      </c>
+      <c r="C182" t="s">
+        <v>318</v>
+      </c>
+      <c r="E182" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>49</v>
+      </c>
+      <c r="B183" t="s">
+        <v>206</v>
+      </c>
+      <c r="C183" t="s">
+        <v>320</v>
+      </c>
+      <c r="E183" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>49</v>
+      </c>
+      <c r="B184" t="s">
+        <v>218</v>
+      </c>
+      <c r="C184" t="s">
+        <v>319</v>
+      </c>
+      <c r="E184" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>49</v>
+      </c>
+      <c r="B185" t="s">
+        <v>312</v>
+      </c>
+      <c r="D185" t="s">
+        <v>437</v>
+      </c>
+      <c r="E185" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>49</v>
+      </c>
+      <c r="B186" t="s">
+        <v>313</v>
+      </c>
+      <c r="D186" t="s">
+        <v>438</v>
+      </c>
+      <c r="E186" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>49</v>
+      </c>
+      <c r="B187" t="s">
+        <v>314</v>
+      </c>
+      <c r="D187" t="s">
+        <v>439</v>
+      </c>
+      <c r="E187" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -5829,7 +6344,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5837,19 +6352,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5857,10 +6372,10 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5868,10 +6383,10 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5879,10 +6394,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5890,10 +6405,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5901,10 +6416,10 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5912,10 +6427,10 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5923,10 +6438,10 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5934,10 +6449,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5945,10 +6460,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5956,10 +6471,10 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5967,10 +6482,10 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5978,10 +6493,10 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5989,10 +6504,10 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6000,10 +6515,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6011,10 +6526,10 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6022,10 +6537,10 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6033,10 +6548,10 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C18" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6044,10 +6559,10 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6055,10 +6570,10 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C20" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6066,10 +6581,10 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C21" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6077,10 +6592,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C22" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6088,10 +6603,10 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C23" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6099,10 +6614,10 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C24" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6110,10 +6625,10 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6121,10 +6636,10 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C26" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6132,7 +6647,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -6143,10 +6658,10 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C28" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6154,10 +6669,10 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C29" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6165,10 +6680,10 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C30" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6176,10 +6691,10 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6187,10 +6702,10 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6198,10 +6713,10 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C33" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6209,10 +6724,10 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C34" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6220,10 +6735,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C35" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6231,10 +6746,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C36" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6242,10 +6757,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C37" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6253,10 +6768,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C38" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6264,10 +6779,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C39" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6275,10 +6790,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C40" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6286,10 +6801,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C41" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6297,10 +6812,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C42" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6308,10 +6823,10 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C43" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6319,10 +6834,10 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C44" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6330,10 +6845,10 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C45" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6341,10 +6856,10 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C46" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6352,10 +6867,10 @@
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C47" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6363,10 +6878,10 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C48" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6374,10 +6889,10 @@
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C49" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6385,10 +6900,10 @@
         <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C50" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -6396,10 +6911,10 @@
         <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C51" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -6407,10 +6922,10 @@
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C52" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -6418,10 +6933,10 @@
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C53" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6429,65 +6944,65 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C54" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C55" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C56" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C57" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C58" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="C59" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -6495,373 +7010,439 @@
         <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="C60" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C61" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C62" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C63" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="C64" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="C65" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="C66" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="C67" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="C68" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C69" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="C70" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="C71" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="C72" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="C73" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="C74" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C75" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C76" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C77" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C78" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B79" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C79" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C80" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C81" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C82" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B83" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C83" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B84" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C84" t="s">
-        <v>439</v>
+        <v>513</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B85" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C85" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>515</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="C87" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="C88" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>300</v>
       </c>
       <c r="C89" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>192</v>
+        <v>300</v>
       </c>
       <c r="C90" t="s">
-        <v>508</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="C91" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B92" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="C92" t="s">
-        <v>510</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
       <c r="C93" t="s">
-        <v>511</v>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" t="s">
+        <v>217</v>
+      </c>
+      <c r="C94" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" t="s">
+        <v>312</v>
+      </c>
+      <c r="C98" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" t="s">
+        <v>312</v>
+      </c>
+      <c r="C99" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/tsvs/nodes_schema_midrc.xlsx
+++ b/gdcdictionary/tsvs/nodes_schema_midrc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="528">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -604,6 +604,9 @@
     <t>&lt;default&gt;</t>
   </si>
   <si>
+    <t>&lt;items&gt;</t>
+  </si>
+  <si>
     <t>age_at_index</t>
   </si>
   <si>
@@ -718,13 +721,16 @@
     <t>spatial_resolution</t>
   </si>
   <si>
+    <t>view_position</t>
+  </si>
+  <si>
     <t>scan_description</t>
   </si>
   <si>
     <t>scan_notes</t>
   </si>
   <si>
-    <t>aquisition_type</t>
+    <t>acquisition_type</t>
   </si>
   <si>
     <t>convolution_kernel</t>
@@ -913,9 +919,6 @@
     <t>support_id</t>
   </si>
   <si>
-    <t>view_position</t>
-  </si>
-  <si>
     <t>days_to_collection</t>
   </si>
   <si>
@@ -1069,7 +1072,7 @@
     <t>(0008, 0008) Image Type</t>
   </si>
   <si>
-    <t>(0028, 2110) Lossy Image Compression</t>
+    <t>(0028, 2110) Lossy Image Compression; Note, if an image is compressed with a lossy algorithm, the Attribute Lossy Image Compression (0028,2110) is set to "01". Subsequently, if the image is decompressed and transferred in uncompressed format, this Attribute value remains "01".</t>
   </si>
   <si>
     <t>(0008, 0070) Manufacturer</t>
@@ -1097,6 +1100,9 @@
   </si>
   <si>
     <t>(0018, 1050) Spatial Resolution</t>
+  </si>
+  <si>
+    <t>(0018, 5101) View Position</t>
   </si>
   <si>
     <t>General description of the CT scan.</t>
@@ -1300,9 +1306,6 @@
 </t>
   </si>
   <si>
-    <t>(0018, 5101) View Position</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date of or date range in which samples were collected.
 </t>
   </si>
@@ -1374,6 +1377,9 @@
     <t>boolean</t>
   </si>
   <si>
+    <t>array</t>
+  </si>
+  <si>
     <t>node_id</t>
   </si>
   <si>
@@ -1437,6 +1443,30 @@
     <t>01</t>
   </si>
   <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>RLD</t>
+  </si>
+  <si>
+    <t>LLD</t>
+  </si>
+  <si>
+    <t>RLO</t>
+  </si>
+  <si>
+    <t>LLO</t>
+  </si>
+  <si>
     <t>SEQUENCED</t>
   </si>
   <si>
@@ -1455,7 +1485,7 @@
     <t>DIRECT</t>
   </si>
   <si>
-    <t>SCINTLLATOR</t>
+    <t>SCINTILLATOR</t>
   </si>
   <si>
     <t>STORAGE</t>
@@ -1549,30 +1579,6 @@
   </si>
   <si>
     <t>closed</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>LL</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>RLD</t>
-  </si>
-  <si>
-    <t>LLD</t>
-  </si>
-  <si>
-    <t>RLO</t>
-  </si>
-  <si>
-    <t>LLO</t>
   </si>
   <si>
     <t>Cryopreserved</t>
@@ -3698,13 +3704,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K187"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>185</v>
       </c>
@@ -3738,212 +3744,215 @@
       <c r="K1" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E9" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E13" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E14" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E16" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3951,13 +3960,13 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E17" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3965,13 +3974,13 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E18" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3979,13 +3988,13 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3993,13 +4002,13 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E20" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4007,13 +4016,13 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E21" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4021,13 +4030,13 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E22" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4035,13 +4044,13 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D23" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E23" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4049,13 +4058,13 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E24" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4063,13 +4072,13 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C25" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E25" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4077,13 +4086,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E26" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4091,13 +4100,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E27" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4105,13 +4114,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4119,13 +4128,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D29" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E29" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4133,13 +4142,13 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D30" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E30" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4147,13 +4156,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D31" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E31" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4161,13 +4170,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D32" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E32" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4175,13 +4184,13 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D33" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E33" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4189,13 +4198,13 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E34" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4203,13 +4212,13 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E35" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4217,13 +4226,13 @@
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D36" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E36" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4231,13 +4240,13 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D37" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E37" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4245,13 +4254,13 @@
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D38" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E38" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4259,13 +4268,13 @@
         <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D39" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E39" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4273,24 +4282,24 @@
         <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D40" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E40" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
-      </c>
-      <c r="C41" t="s">
-        <v>318</v>
+        <v>233</v>
+      </c>
+      <c r="D41" t="s">
+        <v>360</v>
       </c>
       <c r="E41" t="s">
         <v>442</v>
@@ -4307,7 +4316,7 @@
         <v>319</v>
       </c>
       <c r="E42" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4315,13 +4324,13 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C43" t="s">
         <v>320</v>
       </c>
       <c r="E43" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4329,27 +4338,27 @@
         <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
-      </c>
-      <c r="D44" t="s">
-        <v>346</v>
+        <v>207</v>
+      </c>
+      <c r="C44" t="s">
+        <v>321</v>
       </c>
       <c r="E44" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E45" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4357,27 +4366,27 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D46" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E46" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D47" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E47" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4385,10 +4394,10 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="D48" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="E48" t="s">
         <v>442</v>
@@ -4399,13 +4408,13 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D49" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="E49" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4413,13 +4422,13 @@
         <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D50" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E50" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4427,13 +4436,13 @@
         <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="D51" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="E51" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4447,7 +4456,7 @@
         <v>349</v>
       </c>
       <c r="E52" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4475,7 +4484,7 @@
         <v>351</v>
       </c>
       <c r="E54" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4489,7 +4498,7 @@
         <v>352</v>
       </c>
       <c r="E55" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4497,13 +4506,13 @@
         <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D56" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E56" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4511,13 +4520,13 @@
         <v>33</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D57" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E57" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4531,7 +4540,7 @@
         <v>354</v>
       </c>
       <c r="E58" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4545,7 +4554,7 @@
         <v>355</v>
       </c>
       <c r="E59" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4559,7 +4568,7 @@
         <v>356</v>
       </c>
       <c r="E60" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4573,7 +4582,7 @@
         <v>357</v>
       </c>
       <c r="E61" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4581,13 +4590,13 @@
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D62" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E62" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4595,24 +4604,27 @@
         <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D63" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E63" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>240</v>
-      </c>
-      <c r="C64" t="s">
-        <v>317</v>
+        <v>241</v>
+      </c>
+      <c r="D64" t="s">
+        <v>368</v>
+      </c>
+      <c r="E64" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4620,10 +4632,10 @@
         <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>242</v>
       </c>
       <c r="C65" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4631,7 +4643,7 @@
         <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
         <v>322</v>
@@ -4642,7 +4654,7 @@
         <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C67" t="s">
         <v>323</v>
@@ -4653,13 +4665,10 @@
         <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>243</v>
-      </c>
-      <c r="D68" t="s">
-        <v>367</v>
-      </c>
-      <c r="E68" t="s">
-        <v>442</v>
+        <v>244</v>
+      </c>
+      <c r="C68" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4667,13 +4676,13 @@
         <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D69" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E69" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4681,10 +4690,13 @@
         <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>245</v>
-      </c>
-      <c r="C70" t="s">
-        <v>317</v>
+        <v>246</v>
+      </c>
+      <c r="D70" t="s">
+        <v>370</v>
+      </c>
+      <c r="E70" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4692,13 +4704,10 @@
         <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>246</v>
-      </c>
-      <c r="D71" t="s">
-        <v>369</v>
-      </c>
-      <c r="E71" t="s">
-        <v>442</v>
+        <v>247</v>
+      </c>
+      <c r="C71" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4706,13 +4715,13 @@
         <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D72" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E72" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4720,13 +4729,13 @@
         <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D73" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E73" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4734,13 +4743,13 @@
         <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D74" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E74" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4748,13 +4757,13 @@
         <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D75" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E75" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4762,13 +4771,13 @@
         <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D76" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E76" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4776,13 +4785,13 @@
         <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D77" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E77" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4790,13 +4799,13 @@
         <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D78" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E78" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4804,13 +4813,13 @@
         <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D79" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E79" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4818,13 +4827,13 @@
         <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D80" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E80" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4832,13 +4841,13 @@
         <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D81" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E81" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4846,13 +4855,13 @@
         <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D82" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E82" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4860,13 +4869,13 @@
         <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D83" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E83" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4874,27 +4883,27 @@
         <v>34</v>
       </c>
       <c r="B84" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D84" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E84" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B85" t="s">
-        <v>217</v>
-      </c>
-      <c r="C85" t="s">
-        <v>318</v>
+        <v>261</v>
+      </c>
+      <c r="D85" t="s">
+        <v>384</v>
       </c>
       <c r="E85" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4908,7 +4917,7 @@
         <v>319</v>
       </c>
       <c r="E86" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4916,13 +4925,13 @@
         <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C87" t="s">
         <v>320</v>
       </c>
       <c r="E87" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4930,18 +4939,18 @@
         <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
-      </c>
-      <c r="D88" t="s">
-        <v>346</v>
+        <v>207</v>
+      </c>
+      <c r="C88" t="s">
+        <v>321</v>
       </c>
       <c r="E88" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B89" t="s">
         <v>220</v>
@@ -4950,7 +4959,7 @@
         <v>347</v>
       </c>
       <c r="E89" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4958,13 +4967,13 @@
         <v>36</v>
       </c>
       <c r="B90" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="D90" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="E90" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4972,10 +4981,10 @@
         <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="D91" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="E91" t="s">
         <v>442</v>
@@ -4986,13 +4995,13 @@
         <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="D92" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="E92" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -5000,13 +5009,13 @@
         <v>36</v>
       </c>
       <c r="B93" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="D93" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="E93" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -5034,7 +5043,7 @@
         <v>351</v>
       </c>
       <c r="E95" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5048,7 +5057,7 @@
         <v>352</v>
       </c>
       <c r="E96" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5062,7 +5071,7 @@
         <v>353</v>
       </c>
       <c r="E97" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5076,7 +5085,7 @@
         <v>354</v>
       </c>
       <c r="E98" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5090,7 +5099,7 @@
         <v>355</v>
       </c>
       <c r="E99" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5104,7 +5113,7 @@
         <v>356</v>
       </c>
       <c r="E100" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5118,32 +5127,32 @@
         <v>357</v>
       </c>
       <c r="E101" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="D102" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="E102" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B103" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="D103" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="E103" t="s">
         <v>442</v>
@@ -5160,7 +5169,7 @@
         <v>387</v>
       </c>
       <c r="E104" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5174,13 +5183,7 @@
         <v>388</v>
       </c>
       <c r="E105" t="s">
-        <v>440</v>
-      </c>
-      <c r="G105">
-        <v>89</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
+        <v>443</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5194,7 +5197,7 @@
         <v>389</v>
       </c>
       <c r="E106" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5208,7 +5211,13 @@
         <v>390</v>
       </c>
       <c r="E107" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="G107">
+        <v>89</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5236,7 +5245,7 @@
         <v>392</v>
       </c>
       <c r="E109" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5250,7 +5259,7 @@
         <v>393</v>
       </c>
       <c r="E110" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5264,12 +5273,12 @@
         <v>394</v>
       </c>
       <c r="E111" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B112" t="s">
         <v>272</v>
@@ -5278,12 +5287,12 @@
         <v>395</v>
       </c>
       <c r="E112" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B113" t="s">
         <v>273</v>
@@ -5292,7 +5301,7 @@
         <v>396</v>
       </c>
       <c r="E113" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5306,12 +5315,12 @@
         <v>397</v>
       </c>
       <c r="E114" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B115" t="s">
         <v>275</v>
@@ -5325,7 +5334,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B116" t="s">
         <v>276</v>
@@ -5334,7 +5343,7 @@
         <v>399</v>
       </c>
       <c r="E116" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5348,7 +5357,7 @@
         <v>400</v>
       </c>
       <c r="E117" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5362,7 +5371,7 @@
         <v>401</v>
       </c>
       <c r="E118" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5376,12 +5385,12 @@
         <v>402</v>
       </c>
       <c r="E119" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B120" t="s">
         <v>280</v>
@@ -5390,12 +5399,12 @@
         <v>403</v>
       </c>
       <c r="E120" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B121" t="s">
         <v>281</v>
@@ -5404,35 +5413,35 @@
         <v>404</v>
       </c>
       <c r="E121" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B122" t="s">
-        <v>217</v>
-      </c>
-      <c r="C122" t="s">
-        <v>318</v>
+        <v>282</v>
+      </c>
+      <c r="D122" t="s">
+        <v>405</v>
       </c>
       <c r="E122" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B123" t="s">
-        <v>218</v>
-      </c>
-      <c r="C123" t="s">
-        <v>319</v>
+        <v>283</v>
+      </c>
+      <c r="D123" t="s">
+        <v>406</v>
       </c>
       <c r="E123" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5440,13 +5449,13 @@
         <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C124" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E124" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5456,39 +5465,39 @@
       <c r="B125" t="s">
         <v>219</v>
       </c>
-      <c r="D125" t="s">
-        <v>346</v>
+      <c r="C125" t="s">
+        <v>320</v>
       </c>
       <c r="E125" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B126" t="s">
-        <v>220</v>
-      </c>
-      <c r="D126" t="s">
-        <v>347</v>
+        <v>207</v>
+      </c>
+      <c r="C126" t="s">
+        <v>321</v>
       </c>
       <c r="E126" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B127" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="D127" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="E127" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5502,7 +5511,7 @@
         <v>348</v>
       </c>
       <c r="E128" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5510,13 +5519,13 @@
         <v>42</v>
       </c>
       <c r="B129" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D129" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E129" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5530,7 +5539,7 @@
         <v>349</v>
       </c>
       <c r="E130" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5538,13 +5547,13 @@
         <v>42</v>
       </c>
       <c r="B131" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="D131" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="E131" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5552,10 +5561,10 @@
         <v>42</v>
       </c>
       <c r="B132" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D132" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E132" t="s">
         <v>442</v>
@@ -5566,13 +5575,13 @@
         <v>42</v>
       </c>
       <c r="B133" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D133" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E133" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5580,13 +5589,13 @@
         <v>42</v>
       </c>
       <c r="B134" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D134" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E134" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5594,13 +5603,13 @@
         <v>42</v>
       </c>
       <c r="B135" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D135" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E135" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5608,13 +5617,13 @@
         <v>42</v>
       </c>
       <c r="B136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D136" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E136" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5622,13 +5631,13 @@
         <v>42</v>
       </c>
       <c r="B137" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D137" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E137" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5636,52 +5645,55 @@
         <v>42</v>
       </c>
       <c r="B138" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D138" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E138" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B139" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="D139" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="E139" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B140" t="s">
-        <v>244</v>
+        <v>231</v>
+      </c>
+      <c r="D140" t="s">
+        <v>358</v>
       </c>
       <c r="E140" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B141" t="s">
-        <v>112</v>
-      </c>
-      <c r="C141" t="s">
-        <v>321</v>
-      </c>
-      <c r="I141" t="s">
-        <v>445</v>
+        <v>284</v>
+      </c>
+      <c r="D141" t="s">
+        <v>407</v>
+      </c>
+      <c r="E141" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5689,13 +5701,10 @@
         <v>44</v>
       </c>
       <c r="B142" t="s">
-        <v>283</v>
-      </c>
-      <c r="D142" t="s">
-        <v>406</v>
+        <v>246</v>
       </c>
       <c r="E142" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5703,18 +5712,18 @@
         <v>44</v>
       </c>
       <c r="B143" t="s">
-        <v>284</v>
-      </c>
-      <c r="D143" t="s">
-        <v>407</v>
-      </c>
-      <c r="E143" t="s">
-        <v>442</v>
+        <v>112</v>
+      </c>
+      <c r="C143" t="s">
+        <v>322</v>
+      </c>
+      <c r="I143" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B144" t="s">
         <v>285</v>
@@ -5723,12 +5732,12 @@
         <v>408</v>
       </c>
       <c r="E144" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B145" t="s">
         <v>286</v>
@@ -5737,7 +5746,7 @@
         <v>409</v>
       </c>
       <c r="E145" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5751,7 +5760,7 @@
         <v>410</v>
       </c>
       <c r="E146" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5765,7 +5774,7 @@
         <v>411</v>
       </c>
       <c r="E147" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5779,7 +5788,7 @@
         <v>412</v>
       </c>
       <c r="E148" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5787,7 +5796,7 @@
         <v>45</v>
       </c>
       <c r="B149" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D149" t="s">
         <v>413</v>
@@ -5801,16 +5810,13 @@
         <v>45</v>
       </c>
       <c r="B150" t="s">
-        <v>112</v>
-      </c>
-      <c r="C150" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="D150" t="s">
         <v>414</v>
       </c>
-      <c r="I150" t="s">
-        <v>445</v>
+      <c r="E150" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5818,16 +5824,13 @@
         <v>45</v>
       </c>
       <c r="B151" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D151" t="s">
         <v>415</v>
       </c>
       <c r="E151" t="s">
-        <v>442</v>
-      </c>
-      <c r="J151" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5835,13 +5838,16 @@
         <v>45</v>
       </c>
       <c r="B152" t="s">
-        <v>291</v>
+        <v>112</v>
+      </c>
+      <c r="C152" t="s">
+        <v>322</v>
       </c>
       <c r="D152" t="s">
         <v>416</v>
       </c>
-      <c r="E152" t="s">
-        <v>442</v>
+      <c r="I152" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5855,7 +5861,10 @@
         <v>417</v>
       </c>
       <c r="E153" t="s">
-        <v>442</v>
+        <v>443</v>
+      </c>
+      <c r="J153" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5863,13 +5872,13 @@
         <v>45</v>
       </c>
       <c r="B154" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="D154" t="s">
         <v>418</v>
       </c>
       <c r="E154" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5877,16 +5886,13 @@
         <v>45</v>
       </c>
       <c r="B155" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D155" t="s">
         <v>419</v>
       </c>
       <c r="E155" t="s">
-        <v>444</v>
-      </c>
-      <c r="K155" t="b">
-        <v>0</v>
+        <v>443</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5894,16 +5900,13 @@
         <v>45</v>
       </c>
       <c r="B156" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D156" t="s">
         <v>420</v>
       </c>
       <c r="E156" t="s">
-        <v>444</v>
-      </c>
-      <c r="K156" t="b">
-        <v>0</v>
+        <v>443</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5917,7 +5920,10 @@
         <v>421</v>
       </c>
       <c r="E157" t="s">
-        <v>442</v>
+        <v>445</v>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5931,7 +5937,10 @@
         <v>422</v>
       </c>
       <c r="E158" t="s">
-        <v>442</v>
+        <v>445</v>
+      </c>
+      <c r="K158" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5939,16 +5948,13 @@
         <v>45</v>
       </c>
       <c r="B159" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="D159" t="s">
         <v>423</v>
       </c>
       <c r="E159" t="s">
-        <v>441</v>
-      </c>
-      <c r="K159" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5956,234 +5962,240 @@
         <v>45</v>
       </c>
       <c r="B160" t="s">
+        <v>298</v>
+      </c>
+      <c r="D160" t="s">
+        <v>424</v>
+      </c>
+      <c r="E160" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" t="s">
+        <v>45</v>
+      </c>
+      <c r="B161" t="s">
         <v>244</v>
       </c>
-      <c r="E160" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" t="s">
-        <v>46</v>
-      </c>
-      <c r="B161" t="s">
-        <v>280</v>
-      </c>
       <c r="D161" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="E161" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="K161" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B162" t="s">
-        <v>281</v>
-      </c>
-      <c r="D162" t="s">
-        <v>404</v>
+        <v>246</v>
       </c>
       <c r="E162" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" t="s">
         <v>46</v>
       </c>
       <c r="B163" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D163" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="E163" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B164" t="s">
-        <v>298</v>
-      </c>
-      <c r="C164" t="s">
-        <v>324</v>
+        <v>283</v>
+      </c>
+      <c r="D164" t="s">
+        <v>406</v>
       </c>
       <c r="E164" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B165" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="D165" t="s">
-        <v>425</v>
+        <v>360</v>
       </c>
       <c r="E165" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>446</v>
+      </c>
+      <c r="L165" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" t="s">
         <v>47</v>
       </c>
       <c r="B166" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C166" t="s">
         <v>325</v>
       </c>
       <c r="E166" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" t="s">
         <v>47</v>
       </c>
       <c r="B167" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D167" t="s">
         <v>426</v>
       </c>
       <c r="E167" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" t="s">
         <v>47</v>
       </c>
       <c r="B168" t="s">
-        <v>302</v>
-      </c>
-      <c r="D168" t="s">
-        <v>427</v>
+        <v>301</v>
+      </c>
+      <c r="C168" t="s">
+        <v>326</v>
       </c>
       <c r="E168" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:12">
       <c r="A169" t="s">
         <v>47</v>
       </c>
       <c r="B169" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D169" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E169" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" t="s">
         <v>47</v>
       </c>
       <c r="B170" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D170" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E170" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" t="s">
         <v>47</v>
       </c>
       <c r="B171" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D171" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E171" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" t="s">
         <v>47</v>
       </c>
       <c r="B172" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D172" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E172" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" t="s">
         <v>47</v>
       </c>
       <c r="B173" t="s">
+        <v>306</v>
+      </c>
+      <c r="D173" t="s">
+        <v>431</v>
+      </c>
+      <c r="E173" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" t="s">
+        <v>47</v>
+      </c>
+      <c r="B174" t="s">
         <v>307</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D174" t="s">
         <v>432</v>
       </c>
-      <c r="E173" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" t="s">
-        <v>48</v>
-      </c>
-      <c r="B174" t="s">
-        <v>217</v>
-      </c>
-      <c r="C174" t="s">
-        <v>318</v>
-      </c>
       <c r="E174" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B175" t="s">
-        <v>218</v>
-      </c>
-      <c r="C175" t="s">
-        <v>319</v>
+        <v>308</v>
+      </c>
+      <c r="D175" t="s">
+        <v>433</v>
       </c>
       <c r="E175" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" t="s">
         <v>48</v>
       </c>
       <c r="B176" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C176" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E176" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6191,13 +6203,13 @@
         <v>48</v>
       </c>
       <c r="B177" t="s">
-        <v>308</v>
-      </c>
-      <c r="D177" t="s">
-        <v>433</v>
+        <v>219</v>
+      </c>
+      <c r="C177" t="s">
+        <v>320</v>
       </c>
       <c r="E177" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6205,13 +6217,13 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>309</v>
-      </c>
-      <c r="D178" t="s">
-        <v>434</v>
+        <v>207</v>
+      </c>
+      <c r="C178" t="s">
+        <v>321</v>
       </c>
       <c r="E178" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6219,13 +6231,13 @@
         <v>48</v>
       </c>
       <c r="B179" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D179" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E179" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6233,38 +6245,41 @@
         <v>48</v>
       </c>
       <c r="B180" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D180" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E180" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B181" t="s">
-        <v>244</v>
+        <v>311</v>
+      </c>
+      <c r="D181" t="s">
+        <v>436</v>
       </c>
       <c r="E181" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B182" t="s">
-        <v>217</v>
-      </c>
-      <c r="C182" t="s">
-        <v>318</v>
+        <v>312</v>
+      </c>
+      <c r="D182" t="s">
+        <v>437</v>
       </c>
       <c r="E182" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6272,13 +6287,10 @@
         <v>49</v>
       </c>
       <c r="B183" t="s">
-        <v>206</v>
-      </c>
-      <c r="C183" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="E183" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6292,7 +6304,7 @@
         <v>319</v>
       </c>
       <c r="E184" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6300,13 +6312,13 @@
         <v>49</v>
       </c>
       <c r="B185" t="s">
-        <v>312</v>
-      </c>
-      <c r="D185" t="s">
-        <v>437</v>
+        <v>207</v>
+      </c>
+      <c r="C185" t="s">
+        <v>321</v>
       </c>
       <c r="E185" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6314,10 +6326,10 @@
         <v>49</v>
       </c>
       <c r="B186" t="s">
-        <v>313</v>
-      </c>
-      <c r="D186" t="s">
-        <v>438</v>
+        <v>219</v>
+      </c>
+      <c r="C186" t="s">
+        <v>320</v>
       </c>
       <c r="E186" t="s">
         <v>442</v>
@@ -6328,13 +6340,41 @@
         <v>49</v>
       </c>
       <c r="B187" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D187" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E187" t="s">
         <v>442</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>49</v>
+      </c>
+      <c r="B188" t="s">
+        <v>314</v>
+      </c>
+      <c r="D188" t="s">
+        <v>439</v>
+      </c>
+      <c r="E188" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>49</v>
+      </c>
+      <c r="B189" t="s">
+        <v>315</v>
+      </c>
+      <c r="D189" t="s">
+        <v>440</v>
+      </c>
+      <c r="E189" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -6344,7 +6384,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6358,13 +6398,13 @@
         <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6372,10 +6412,10 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6383,10 +6423,10 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6394,10 +6434,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6405,10 +6445,10 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6416,10 +6456,10 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6427,10 +6467,10 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6438,10 +6478,10 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6449,10 +6489,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6460,10 +6500,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6471,10 +6511,10 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6482,10 +6522,10 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6493,10 +6533,10 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6504,10 +6544,10 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6515,10 +6555,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6526,10 +6566,10 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6537,10 +6577,10 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6548,10 +6588,10 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6559,791 +6599,791 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C21" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C24" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C25" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C28" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C29" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C30" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C31" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="C34" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="C35" t="s">
-        <v>476</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C36" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C37" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C38" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C39" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="C40" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="C42" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="C43" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="C44" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="C45" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="C46" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="C47" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="C48" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="C49" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C50" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C52" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C53" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C54" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C55" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C56" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C57" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="C58" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="C59" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="C60" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C61" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C62" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C63" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C64" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C65" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C66" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C67" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C68" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C69" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="C70" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C71" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C72" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B73" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C73" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C74" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B76" t="s">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="C76" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C77" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C78" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C79" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C80" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C81" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C82" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B83" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C83" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C84" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C85" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="C86" t="s">
-        <v>515</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B87" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="C87" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="C89" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="C90" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -7351,98 +7391,186 @@
         <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C91" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="C92" t="s">
-        <v>49</v>
+        <v>515</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="C93" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c r="C94" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B95" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="C95" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="C96" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B97" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="C97" t="s">
-        <v>523</v>
+        <v>487</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C98" t="s">
-        <v>524</v>
+        <v>455</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99" t="s">
+        <v>301</v>
+      </c>
+      <c r="C99" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
         <v>49</v>
       </c>
-      <c r="B99" t="s">
-        <v>312</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>246</v>
+      </c>
+      <c r="C100" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" t="s">
+        <v>218</v>
+      </c>
+      <c r="C101" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" t="s">
         <v>525</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106" t="s">
+        <v>313</v>
+      </c>
+      <c r="C106" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>49</v>
+      </c>
+      <c r="B107" t="s">
+        <v>313</v>
+      </c>
+      <c r="C107" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/tsvs/nodes_schema_midrc.xlsx
+++ b/gdcdictionary/tsvs/nodes_schema_midrc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="528">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -595,6 +595,9 @@
     <t>&lt;minimum&gt;</t>
   </si>
   <si>
+    <t>&lt;items&gt;</t>
+  </si>
+  <si>
     <t>&lt;systemAlias&gt;</t>
   </si>
   <si>
@@ -602,9 +605,6 @@
   </si>
   <si>
     <t>&lt;default&gt;</t>
-  </si>
-  <si>
-    <t>&lt;items&gt;</t>
   </si>
   <si>
     <t>age_at_index</t>
@@ -1374,10 +1374,10 @@
     <t>integer</t>
   </si>
   <si>
+    <t>array</t>
+  </si>
+  <si>
     <t>boolean</t>
-  </si>
-  <si>
-    <t>array</t>
   </si>
   <si>
     <t>node_id</t>
@@ -3955,7 +3955,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -4148,10 +4148,13 @@
         <v>349</v>
       </c>
       <c r="E30" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>445</v>
+      </c>
+      <c r="I30" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4165,7 +4168,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4179,7 +4182,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -4193,7 +4196,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -4218,10 +4221,13 @@
         <v>354</v>
       </c>
       <c r="E35" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>445</v>
+      </c>
+      <c r="I35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -4235,7 +4241,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -4263,7 +4269,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -4277,7 +4283,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -4291,7 +4297,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -4305,7 +4311,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -4319,7 +4325,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -4333,7 +4339,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -4347,7 +4353,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -4361,7 +4367,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -4375,7 +4381,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -4389,7 +4395,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -4403,7 +4409,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -4417,7 +4423,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -4431,7 +4437,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -4445,7 +4451,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -4456,10 +4462,13 @@
         <v>349</v>
       </c>
       <c r="E52" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>445</v>
+      </c>
+      <c r="I52" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -4473,7 +4482,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -4487,7 +4496,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -4501,7 +4510,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -4515,7 +4524,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -4529,7 +4538,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -4540,10 +4549,13 @@
         <v>354</v>
       </c>
       <c r="E58" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>445</v>
+      </c>
+      <c r="I58" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -4557,7 +4569,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -4571,7 +4583,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -4585,7 +4597,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -4599,7 +4611,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -4610,10 +4622,13 @@
         <v>367</v>
       </c>
       <c r="E63" t="s">
+        <v>445</v>
+      </c>
+      <c r="I63" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -4819,7 +4834,7 @@
         <v>378</v>
       </c>
       <c r="E79" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4836,7 +4851,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>34</v>
       </c>
@@ -4850,7 +4865,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>34</v>
       </c>
@@ -4864,7 +4879,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>34</v>
       </c>
@@ -4878,7 +4893,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>34</v>
       </c>
@@ -4892,7 +4907,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>34</v>
       </c>
@@ -4906,7 +4921,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>35</v>
       </c>
@@ -4920,7 +4935,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>35</v>
       </c>
@@ -4934,7 +4949,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -4948,7 +4963,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>35</v>
       </c>
@@ -4962,7 +4977,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>36</v>
       </c>
@@ -4976,7 +4991,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -4990,7 +5005,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -5001,10 +5016,13 @@
         <v>349</v>
       </c>
       <c r="E92" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>445</v>
+      </c>
+      <c r="I92" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>36</v>
       </c>
@@ -5015,10 +5033,13 @@
         <v>386</v>
       </c>
       <c r="E93" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>445</v>
+      </c>
+      <c r="I93" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -5032,7 +5053,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>36</v>
       </c>
@@ -5046,7 +5067,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>36</v>
       </c>
@@ -5060,7 +5081,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -5074,7 +5095,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>36</v>
       </c>
@@ -5085,10 +5106,13 @@
         <v>354</v>
       </c>
       <c r="E98" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>445</v>
+      </c>
+      <c r="I98" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>36</v>
       </c>
@@ -5102,7 +5126,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>36</v>
       </c>
@@ -5116,7 +5140,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>36</v>
       </c>
@@ -5130,7 +5154,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -5144,7 +5168,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -5158,7 +5182,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>37</v>
       </c>
@@ -5172,7 +5196,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>37</v>
       </c>
@@ -5186,7 +5210,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>37</v>
       </c>
@@ -5200,7 +5224,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>37</v>
       </c>
@@ -5220,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>37</v>
       </c>
@@ -5234,7 +5258,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>37</v>
       </c>
@@ -5248,7 +5272,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>37</v>
       </c>
@@ -5262,7 +5286,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>37</v>
       </c>
@@ -5276,7 +5300,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>37</v>
       </c>
@@ -5301,7 +5325,7 @@
         <v>396</v>
       </c>
       <c r="E113" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5514,7 +5538,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>42</v>
       </c>
@@ -5528,7 +5552,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>42</v>
       </c>
@@ -5539,10 +5563,13 @@
         <v>349</v>
       </c>
       <c r="E130" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>445</v>
+      </c>
+      <c r="I130" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>42</v>
       </c>
@@ -5553,10 +5580,13 @@
         <v>386</v>
       </c>
       <c r="E131" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>445</v>
+      </c>
+      <c r="I131" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>42</v>
       </c>
@@ -5570,7 +5600,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>42</v>
       </c>
@@ -5584,7 +5614,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>42</v>
       </c>
@@ -5598,7 +5628,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>42</v>
       </c>
@@ -5612,7 +5642,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
         <v>42</v>
       </c>
@@ -5623,10 +5653,13 @@
         <v>354</v>
       </c>
       <c r="E136" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>445</v>
+      </c>
+      <c r="I136" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>42</v>
       </c>
@@ -5640,7 +5673,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
         <v>42</v>
       </c>
@@ -5654,7 +5687,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
         <v>42</v>
       </c>
@@ -5668,7 +5701,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
         <v>42</v>
       </c>
@@ -5682,7 +5715,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>43</v>
       </c>
@@ -5696,7 +5729,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>44</v>
       </c>
@@ -5707,7 +5740,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
         <v>44</v>
       </c>
@@ -5717,11 +5750,11 @@
       <c r="C143" t="s">
         <v>322</v>
       </c>
-      <c r="I143" t="s">
+      <c r="J143" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
         <v>44</v>
       </c>
@@ -5735,7 +5768,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:12">
       <c r="A145" t="s">
         <v>44</v>
       </c>
@@ -5749,7 +5782,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:12">
       <c r="A146" t="s">
         <v>45</v>
       </c>
@@ -5763,7 +5796,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:12">
       <c r="A147" t="s">
         <v>45</v>
       </c>
@@ -5777,7 +5810,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:12">
       <c r="A148" t="s">
         <v>45</v>
       </c>
@@ -5791,7 +5824,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:12">
       <c r="A149" t="s">
         <v>45</v>
       </c>
@@ -5805,7 +5838,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:12">
       <c r="A150" t="s">
         <v>45</v>
       </c>
@@ -5819,7 +5852,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:12">
       <c r="A151" t="s">
         <v>45</v>
       </c>
@@ -5833,7 +5866,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:12">
       <c r="A152" t="s">
         <v>45</v>
       </c>
@@ -5846,11 +5879,11 @@
       <c r="D152" t="s">
         <v>416</v>
       </c>
-      <c r="I152" t="s">
+      <c r="J152" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:12">
       <c r="A153" t="s">
         <v>45</v>
       </c>
@@ -5863,11 +5896,11 @@
       <c r="E153" t="s">
         <v>443</v>
       </c>
-      <c r="J153" t="s">
+      <c r="K153" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:12">
       <c r="A154" t="s">
         <v>45</v>
       </c>
@@ -5881,7 +5914,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:12">
       <c r="A155" t="s">
         <v>45</v>
       </c>
@@ -5895,7 +5928,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:12">
       <c r="A156" t="s">
         <v>45</v>
       </c>
@@ -5909,7 +5942,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:12">
       <c r="A157" t="s">
         <v>45</v>
       </c>
@@ -5920,13 +5953,13 @@
         <v>421</v>
       </c>
       <c r="E157" t="s">
-        <v>445</v>
-      </c>
-      <c r="K157" t="b">
+        <v>446</v>
+      </c>
+      <c r="L157" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:12">
       <c r="A158" t="s">
         <v>45</v>
       </c>
@@ -5937,13 +5970,13 @@
         <v>422</v>
       </c>
       <c r="E158" t="s">
-        <v>445</v>
-      </c>
-      <c r="K158" t="b">
+        <v>446</v>
+      </c>
+      <c r="L158" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:12">
       <c r="A159" t="s">
         <v>45</v>
       </c>
@@ -5957,7 +5990,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:12">
       <c r="A160" t="s">
         <v>45</v>
       </c>
@@ -5984,7 +6017,7 @@
       <c r="E161" t="s">
         <v>442</v>
       </c>
-      <c r="K161" t="s">
+      <c r="L161" t="s">
         <v>449</v>
       </c>
     </row>
@@ -6038,9 +6071,9 @@
         <v>360</v>
       </c>
       <c r="E165" t="s">
-        <v>446</v>
-      </c>
-      <c r="L165" t="s">
+        <v>445</v>
+      </c>
+      <c r="I165" t="s">
         <v>443</v>
       </c>
     </row>

--- a/gdcdictionary/tsvs/nodes_schema_midrc.xlsx
+++ b/gdcdictionary/tsvs/nodes_schema_midrc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="530">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -838,6 +838,9 @@
     <t>study_covid_status</t>
   </si>
   <si>
+    <t>study_uid</t>
+  </si>
+  <si>
     <t>study_year</t>
   </si>
   <si>
@@ -1205,6 +1208,9 @@
   </si>
   <si>
     <t>The COVID-19 test status of the patient at the time the imaging study was performed.</t>
+  </si>
+  <si>
+    <t>(0020, 000d) Study Instance UID</t>
   </si>
   <si>
     <t>The year when imaging study was performed; year component of Study Date (0008, 0020).</t>
@@ -3704,7 +3710,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L189"/>
+  <dimension ref="A1:L190"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3756,10 +3762,10 @@
         <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3770,10 +3776,10 @@
         <v>196</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3784,10 +3790,10 @@
         <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3798,10 +3804,10 @@
         <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3812,10 +3818,10 @@
         <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E6" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3826,10 +3832,10 @@
         <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3840,10 +3846,10 @@
         <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3854,10 +3860,10 @@
         <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3868,10 +3874,10 @@
         <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3882,10 +3888,10 @@
         <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3896,10 +3902,10 @@
         <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E12" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3910,10 +3916,10 @@
         <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E13" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3924,10 +3930,10 @@
         <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E14" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3938,7 +3944,7 @@
         <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3949,10 +3955,10 @@
         <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E16" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3963,10 +3969,10 @@
         <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E17" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3977,10 +3983,10 @@
         <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E18" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3991,10 +3997,10 @@
         <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E19" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4005,10 +4011,10 @@
         <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E20" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4019,10 +4025,10 @@
         <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E21" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4033,10 +4039,10 @@
         <v>215</v>
       </c>
       <c r="D22" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E22" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4047,10 +4053,10 @@
         <v>216</v>
       </c>
       <c r="D23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E23" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4061,10 +4067,10 @@
         <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E24" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4075,10 +4081,10 @@
         <v>218</v>
       </c>
       <c r="C25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E25" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4089,10 +4095,10 @@
         <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E26" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4103,10 +4109,10 @@
         <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E27" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4117,10 +4123,10 @@
         <v>220</v>
       </c>
       <c r="D28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E28" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4131,10 +4137,10 @@
         <v>221</v>
       </c>
       <c r="D29" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E29" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4145,13 +4151,13 @@
         <v>222</v>
       </c>
       <c r="D30" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E30" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I30" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4162,10 +4168,10 @@
         <v>223</v>
       </c>
       <c r="D31" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E31" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4176,10 +4182,10 @@
         <v>224</v>
       </c>
       <c r="D32" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E32" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4190,10 +4196,10 @@
         <v>225</v>
       </c>
       <c r="D33" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E33" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4204,10 +4210,10 @@
         <v>226</v>
       </c>
       <c r="D34" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E34" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4218,10 +4224,10 @@
         <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E35" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I35" t="s">
         <v>443</v>
@@ -4235,10 +4241,10 @@
         <v>228</v>
       </c>
       <c r="D36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E36" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4249,10 +4255,10 @@
         <v>229</v>
       </c>
       <c r="D37" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E37" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4263,10 +4269,10 @@
         <v>230</v>
       </c>
       <c r="D38" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E38" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4277,10 +4283,10 @@
         <v>231</v>
       </c>
       <c r="D39" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E39" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4291,10 +4297,10 @@
         <v>232</v>
       </c>
       <c r="D40" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E40" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4305,10 +4311,10 @@
         <v>233</v>
       </c>
       <c r="D41" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E41" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4319,10 +4325,10 @@
         <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E42" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4333,10 +4339,10 @@
         <v>219</v>
       </c>
       <c r="C43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E43" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4347,10 +4353,10 @@
         <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E44" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4361,10 +4367,10 @@
         <v>220</v>
       </c>
       <c r="D45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E45" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4375,10 +4381,10 @@
         <v>234</v>
       </c>
       <c r="D46" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E46" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4389,10 +4395,10 @@
         <v>235</v>
       </c>
       <c r="D47" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E47" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4403,10 +4409,10 @@
         <v>236</v>
       </c>
       <c r="D48" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E48" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4417,10 +4423,10 @@
         <v>221</v>
       </c>
       <c r="D49" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E49" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4431,10 +4437,10 @@
         <v>237</v>
       </c>
       <c r="D50" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E50" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4445,10 +4451,10 @@
         <v>238</v>
       </c>
       <c r="D51" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E51" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4459,13 +4465,13 @@
         <v>222</v>
       </c>
       <c r="D52" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E52" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I52" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4476,10 +4482,10 @@
         <v>223</v>
       </c>
       <c r="D53" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E53" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4490,10 +4496,10 @@
         <v>224</v>
       </c>
       <c r="D54" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E54" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4504,10 +4510,10 @@
         <v>225</v>
       </c>
       <c r="D55" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E55" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4518,10 +4524,10 @@
         <v>226</v>
       </c>
       <c r="D56" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E56" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4532,10 +4538,10 @@
         <v>239</v>
       </c>
       <c r="D57" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E57" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4546,10 +4552,10 @@
         <v>227</v>
       </c>
       <c r="D58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E58" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I58" t="s">
         <v>443</v>
@@ -4563,10 +4569,10 @@
         <v>228</v>
       </c>
       <c r="D59" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E59" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4577,10 +4583,10 @@
         <v>229</v>
       </c>
       <c r="D60" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E60" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4591,10 +4597,10 @@
         <v>230</v>
       </c>
       <c r="D61" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E61" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4605,10 +4611,10 @@
         <v>231</v>
       </c>
       <c r="D62" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E62" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4619,13 +4625,13 @@
         <v>240</v>
       </c>
       <c r="D63" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E63" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I63" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4636,10 +4642,13 @@
         <v>241</v>
       </c>
       <c r="D64" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E64" t="s">
-        <v>441</v>
+        <v>447</v>
+      </c>
+      <c r="I64" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4650,7 +4659,7 @@
         <v>242</v>
       </c>
       <c r="C65" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4661,7 +4670,7 @@
         <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4672,7 +4681,7 @@
         <v>243</v>
       </c>
       <c r="C67" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4683,7 +4692,7 @@
         <v>244</v>
       </c>
       <c r="C68" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4694,10 +4703,10 @@
         <v>245</v>
       </c>
       <c r="D69" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E69" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4708,10 +4717,10 @@
         <v>246</v>
       </c>
       <c r="D70" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E70" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4722,7 +4731,7 @@
         <v>247</v>
       </c>
       <c r="C71" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4733,10 +4742,10 @@
         <v>248</v>
       </c>
       <c r="D72" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E72" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4747,10 +4756,10 @@
         <v>249</v>
       </c>
       <c r="D73" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E73" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4761,10 +4770,10 @@
         <v>250</v>
       </c>
       <c r="D74" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E74" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4775,10 +4784,10 @@
         <v>251</v>
       </c>
       <c r="D75" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E75" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4789,10 +4798,10 @@
         <v>252</v>
       </c>
       <c r="D76" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E76" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4803,10 +4812,10 @@
         <v>253</v>
       </c>
       <c r="D77" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E77" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4817,10 +4826,10 @@
         <v>254</v>
       </c>
       <c r="D78" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E78" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4831,10 +4840,10 @@
         <v>255</v>
       </c>
       <c r="D79" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E79" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4845,10 +4854,10 @@
         <v>256</v>
       </c>
       <c r="D80" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E80" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4859,10 +4868,10 @@
         <v>257</v>
       </c>
       <c r="D81" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E81" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4873,10 +4882,10 @@
         <v>258</v>
       </c>
       <c r="D82" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E82" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4887,10 +4896,10 @@
         <v>259</v>
       </c>
       <c r="D83" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E83" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4901,10 +4910,10 @@
         <v>260</v>
       </c>
       <c r="D84" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E84" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4915,10 +4924,10 @@
         <v>261</v>
       </c>
       <c r="D85" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E85" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4929,10 +4938,10 @@
         <v>218</v>
       </c>
       <c r="C86" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E86" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4943,10 +4952,10 @@
         <v>219</v>
       </c>
       <c r="C87" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E87" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4957,10 +4966,10 @@
         <v>207</v>
       </c>
       <c r="C88" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E88" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4971,10 +4980,10 @@
         <v>220</v>
       </c>
       <c r="D89" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E89" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4985,10 +4994,10 @@
         <v>221</v>
       </c>
       <c r="D90" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E90" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4999,10 +5008,10 @@
         <v>262</v>
       </c>
       <c r="D91" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E91" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5013,13 +5022,13 @@
         <v>222</v>
       </c>
       <c r="D92" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E92" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I92" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5030,10 +5039,10 @@
         <v>263</v>
       </c>
       <c r="D93" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E93" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I93" t="s">
         <v>443</v>
@@ -5047,10 +5056,10 @@
         <v>223</v>
       </c>
       <c r="D94" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E94" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5061,10 +5070,10 @@
         <v>224</v>
       </c>
       <c r="D95" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E95" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5075,10 +5084,10 @@
         <v>225</v>
       </c>
       <c r="D96" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E96" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5089,10 +5098,10 @@
         <v>226</v>
       </c>
       <c r="D97" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E97" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5103,10 +5112,10 @@
         <v>227</v>
       </c>
       <c r="D98" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E98" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I98" t="s">
         <v>443</v>
@@ -5120,10 +5129,10 @@
         <v>228</v>
       </c>
       <c r="D99" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E99" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5134,10 +5143,10 @@
         <v>229</v>
       </c>
       <c r="D100" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E100" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -5148,10 +5157,10 @@
         <v>230</v>
       </c>
       <c r="D101" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E101" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -5162,10 +5171,10 @@
         <v>231</v>
       </c>
       <c r="D102" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E102" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -5176,10 +5185,10 @@
         <v>233</v>
       </c>
       <c r="D103" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E103" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5190,10 +5199,10 @@
         <v>264</v>
       </c>
       <c r="D104" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E104" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5204,10 +5213,10 @@
         <v>265</v>
       </c>
       <c r="D105" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E105" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -5218,10 +5227,10 @@
         <v>266</v>
       </c>
       <c r="D106" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E106" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5232,10 +5241,10 @@
         <v>267</v>
       </c>
       <c r="D107" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E107" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G107">
         <v>89</v>
@@ -5252,10 +5261,10 @@
         <v>268</v>
       </c>
       <c r="D108" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E108" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -5266,10 +5275,10 @@
         <v>269</v>
       </c>
       <c r="D109" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E109" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -5280,10 +5289,10 @@
         <v>270</v>
       </c>
       <c r="D110" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E110" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5294,10 +5303,10 @@
         <v>271</v>
       </c>
       <c r="D111" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E111" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -5308,10 +5317,10 @@
         <v>272</v>
       </c>
       <c r="D112" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E112" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5322,7 +5331,7 @@
         <v>273</v>
       </c>
       <c r="D113" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E113" t="s">
         <v>446</v>
@@ -5330,16 +5339,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B114" t="s">
         <v>274</v>
       </c>
       <c r="D114" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E114" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5350,10 +5359,10 @@
         <v>275</v>
       </c>
       <c r="D115" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E115" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5364,24 +5373,24 @@
         <v>276</v>
       </c>
       <c r="D116" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E116" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B117" t="s">
         <v>277</v>
       </c>
       <c r="D117" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E117" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5392,10 +5401,10 @@
         <v>278</v>
       </c>
       <c r="D118" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E118" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5406,10 +5415,10 @@
         <v>279</v>
       </c>
       <c r="D119" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E119" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5420,7 +5429,7 @@
         <v>280</v>
       </c>
       <c r="D120" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E120" t="s">
         <v>444</v>
@@ -5434,24 +5443,24 @@
         <v>281</v>
       </c>
       <c r="D121" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E121" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B122" t="s">
         <v>282</v>
       </c>
       <c r="D122" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E122" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5462,24 +5471,24 @@
         <v>283</v>
       </c>
       <c r="D123" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E123" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B124" t="s">
-        <v>218</v>
-      </c>
-      <c r="C124" t="s">
-        <v>319</v>
+        <v>284</v>
+      </c>
+      <c r="D124" t="s">
+        <v>408</v>
       </c>
       <c r="E124" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5487,13 +5496,13 @@
         <v>41</v>
       </c>
       <c r="B125" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C125" t="s">
         <v>320</v>
       </c>
       <c r="E125" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5501,13 +5510,13 @@
         <v>41</v>
       </c>
       <c r="B126" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C126" t="s">
         <v>321</v>
       </c>
       <c r="E126" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5515,27 +5524,27 @@
         <v>41</v>
       </c>
       <c r="B127" t="s">
-        <v>220</v>
-      </c>
-      <c r="D127" t="s">
-        <v>347</v>
+        <v>207</v>
+      </c>
+      <c r="C127" t="s">
+        <v>322</v>
       </c>
       <c r="E127" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B128" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D128" t="s">
         <v>348</v>
       </c>
       <c r="E128" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -5543,13 +5552,13 @@
         <v>42</v>
       </c>
       <c r="B129" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="D129" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="E129" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -5557,16 +5566,13 @@
         <v>42</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="D130" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="E130" t="s">
-        <v>445</v>
-      </c>
-      <c r="I130" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -5574,16 +5580,16 @@
         <v>42</v>
       </c>
       <c r="B131" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="D131" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="E131" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I131" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -5591,13 +5597,16 @@
         <v>42</v>
       </c>
       <c r="B132" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="D132" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="E132" t="s">
-        <v>442</v>
+        <v>447</v>
+      </c>
+      <c r="I132" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -5605,13 +5614,13 @@
         <v>42</v>
       </c>
       <c r="B133" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D133" t="s">
         <v>351</v>
       </c>
       <c r="E133" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -5619,13 +5628,13 @@
         <v>42</v>
       </c>
       <c r="B134" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D134" t="s">
         <v>352</v>
       </c>
       <c r="E134" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -5633,13 +5642,13 @@
         <v>42</v>
       </c>
       <c r="B135" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D135" t="s">
         <v>353</v>
       </c>
       <c r="E135" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -5647,16 +5656,13 @@
         <v>42</v>
       </c>
       <c r="B136" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D136" t="s">
         <v>354</v>
       </c>
       <c r="E136" t="s">
         <v>445</v>
-      </c>
-      <c r="I136" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -5664,12 +5670,15 @@
         <v>42</v>
       </c>
       <c r="B137" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D137" t="s">
         <v>355</v>
       </c>
       <c r="E137" t="s">
+        <v>447</v>
+      </c>
+      <c r="I137" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5678,13 +5687,13 @@
         <v>42</v>
       </c>
       <c r="B138" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D138" t="s">
         <v>356</v>
       </c>
       <c r="E138" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -5692,13 +5701,13 @@
         <v>42</v>
       </c>
       <c r="B139" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D139" t="s">
         <v>357</v>
       </c>
       <c r="E139" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -5706,38 +5715,41 @@
         <v>42</v>
       </c>
       <c r="B140" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D140" t="s">
         <v>358</v>
       </c>
       <c r="E140" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="D141" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="E141" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B142" t="s">
-        <v>246</v>
+        <v>285</v>
+      </c>
+      <c r="D142" t="s">
+        <v>409</v>
       </c>
       <c r="E142" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -5745,13 +5757,10 @@
         <v>44</v>
       </c>
       <c r="B143" t="s">
-        <v>112</v>
-      </c>
-      <c r="C143" t="s">
-        <v>322</v>
-      </c>
-      <c r="J143" t="s">
-        <v>447</v>
+        <v>246</v>
+      </c>
+      <c r="E143" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -5759,13 +5768,13 @@
         <v>44</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
-      </c>
-      <c r="D144" t="s">
-        <v>408</v>
-      </c>
-      <c r="E144" t="s">
-        <v>443</v>
+        <v>112</v>
+      </c>
+      <c r="C144" t="s">
+        <v>323</v>
+      </c>
+      <c r="J144" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -5776,24 +5785,24 @@
         <v>286</v>
       </c>
       <c r="D145" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E145" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B146" t="s">
         <v>287</v>
       </c>
       <c r="D146" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E146" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -5804,10 +5813,10 @@
         <v>288</v>
       </c>
       <c r="D147" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E147" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -5818,10 +5827,10 @@
         <v>289</v>
       </c>
       <c r="D148" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E148" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -5832,10 +5841,10 @@
         <v>290</v>
       </c>
       <c r="D149" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E149" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -5846,10 +5855,10 @@
         <v>291</v>
       </c>
       <c r="D150" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E150" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -5857,13 +5866,13 @@
         <v>45</v>
       </c>
       <c r="B151" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D151" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E151" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -5871,16 +5880,13 @@
         <v>45</v>
       </c>
       <c r="B152" t="s">
-        <v>112</v>
-      </c>
-      <c r="C152" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="D152" t="s">
-        <v>416</v>
-      </c>
-      <c r="J152" t="s">
-        <v>447</v>
+        <v>417</v>
+      </c>
+      <c r="E152" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -5888,16 +5894,16 @@
         <v>45</v>
       </c>
       <c r="B153" t="s">
-        <v>292</v>
+        <v>112</v>
+      </c>
+      <c r="C153" t="s">
+        <v>323</v>
       </c>
       <c r="D153" t="s">
-        <v>417</v>
-      </c>
-      <c r="E153" t="s">
-        <v>443</v>
-      </c>
-      <c r="K153" t="s">
-        <v>448</v>
+        <v>418</v>
+      </c>
+      <c r="J153" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -5908,10 +5914,13 @@
         <v>293</v>
       </c>
       <c r="D154" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E154" t="s">
-        <v>443</v>
+        <v>445</v>
+      </c>
+      <c r="K154" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -5922,10 +5931,10 @@
         <v>294</v>
       </c>
       <c r="D155" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E155" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -5933,13 +5942,13 @@
         <v>45</v>
       </c>
       <c r="B156" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D156" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E156" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -5947,16 +5956,13 @@
         <v>45</v>
       </c>
       <c r="B157" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D157" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E157" t="s">
-        <v>446</v>
-      </c>
-      <c r="L157" t="b">
-        <v>0</v>
+        <v>445</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -5967,10 +5973,10 @@
         <v>296</v>
       </c>
       <c r="D158" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E158" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L158" t="b">
         <v>0</v>
@@ -5984,10 +5990,13 @@
         <v>297</v>
       </c>
       <c r="D159" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E159" t="s">
-        <v>443</v>
+        <v>448</v>
+      </c>
+      <c r="L159" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -5998,10 +6007,10 @@
         <v>298</v>
       </c>
       <c r="D160" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E160" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6009,16 +6018,13 @@
         <v>45</v>
       </c>
       <c r="B161" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="D161" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E161" t="s">
-        <v>442</v>
-      </c>
-      <c r="L161" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6026,24 +6032,27 @@
         <v>45</v>
       </c>
       <c r="B162" t="s">
-        <v>246</v>
+        <v>244</v>
+      </c>
+      <c r="D162" t="s">
+        <v>427</v>
       </c>
       <c r="E162" t="s">
-        <v>443</v>
+        <v>444</v>
+      </c>
+      <c r="L162" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B163" t="s">
-        <v>282</v>
-      </c>
-      <c r="D163" t="s">
-        <v>405</v>
+        <v>246</v>
       </c>
       <c r="E163" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -6054,10 +6063,10 @@
         <v>283</v>
       </c>
       <c r="D164" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E164" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -6065,30 +6074,30 @@
         <v>46</v>
       </c>
       <c r="B165" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="D165" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="E165" t="s">
         <v>445</v>
-      </c>
-      <c r="I165" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B166" t="s">
-        <v>299</v>
-      </c>
-      <c r="C166" t="s">
-        <v>325</v>
+        <v>233</v>
+      </c>
+      <c r="D166" t="s">
+        <v>361</v>
       </c>
       <c r="E166" t="s">
-        <v>444</v>
+        <v>447</v>
+      </c>
+      <c r="I166" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -6098,11 +6107,11 @@
       <c r="B167" t="s">
         <v>300</v>
       </c>
-      <c r="D167" t="s">
-        <v>426</v>
+      <c r="C167" t="s">
+        <v>326</v>
       </c>
       <c r="E167" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -6112,11 +6121,11 @@
       <c r="B168" t="s">
         <v>301</v>
       </c>
-      <c r="C168" t="s">
-        <v>326</v>
+      <c r="D168" t="s">
+        <v>428</v>
       </c>
       <c r="E168" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -6126,11 +6135,11 @@
       <c r="B169" t="s">
         <v>302</v>
       </c>
-      <c r="D169" t="s">
-        <v>427</v>
+      <c r="C169" t="s">
+        <v>327</v>
       </c>
       <c r="E169" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -6141,10 +6150,10 @@
         <v>303</v>
       </c>
       <c r="D170" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E170" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -6155,10 +6164,10 @@
         <v>304</v>
       </c>
       <c r="D171" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E171" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -6169,10 +6178,10 @@
         <v>305</v>
       </c>
       <c r="D172" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E172" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -6183,10 +6192,10 @@
         <v>306</v>
       </c>
       <c r="D173" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E173" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -6197,10 +6206,10 @@
         <v>307</v>
       </c>
       <c r="D174" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E174" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -6211,24 +6220,24 @@
         <v>308</v>
       </c>
       <c r="D175" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E175" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B176" t="s">
-        <v>218</v>
-      </c>
-      <c r="C176" t="s">
-        <v>319</v>
+        <v>309</v>
+      </c>
+      <c r="D176" t="s">
+        <v>435</v>
       </c>
       <c r="E176" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6236,13 +6245,13 @@
         <v>48</v>
       </c>
       <c r="B177" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C177" t="s">
         <v>320</v>
       </c>
       <c r="E177" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6250,13 +6259,13 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C178" t="s">
         <v>321</v>
       </c>
       <c r="E178" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6264,13 +6273,13 @@
         <v>48</v>
       </c>
       <c r="B179" t="s">
-        <v>309</v>
-      </c>
-      <c r="D179" t="s">
-        <v>434</v>
+        <v>207</v>
+      </c>
+      <c r="C179" t="s">
+        <v>322</v>
       </c>
       <c r="E179" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6281,10 +6290,10 @@
         <v>310</v>
       </c>
       <c r="D180" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E180" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6295,10 +6304,10 @@
         <v>311</v>
       </c>
       <c r="D181" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E181" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6309,21 +6318,24 @@
         <v>312</v>
       </c>
       <c r="D182" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E182" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B183" t="s">
-        <v>246</v>
+        <v>313</v>
+      </c>
+      <c r="D183" t="s">
+        <v>439</v>
       </c>
       <c r="E183" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6331,13 +6343,10 @@
         <v>49</v>
       </c>
       <c r="B184" t="s">
-        <v>218</v>
-      </c>
-      <c r="C184" t="s">
-        <v>319</v>
+        <v>246</v>
       </c>
       <c r="E184" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6345,13 +6354,13 @@
         <v>49</v>
       </c>
       <c r="B185" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C185" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E185" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6359,13 +6368,13 @@
         <v>49</v>
       </c>
       <c r="B186" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C186" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E186" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6373,13 +6382,13 @@
         <v>49</v>
       </c>
       <c r="B187" t="s">
-        <v>313</v>
-      </c>
-      <c r="D187" t="s">
-        <v>438</v>
+        <v>219</v>
+      </c>
+      <c r="C187" t="s">
+        <v>321</v>
       </c>
       <c r="E187" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6390,10 +6399,10 @@
         <v>314</v>
       </c>
       <c r="D188" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E188" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6404,10 +6413,24 @@
         <v>315</v>
       </c>
       <c r="D189" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E189" t="s">
-        <v>443</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>49</v>
+      </c>
+      <c r="B190" t="s">
+        <v>316</v>
+      </c>
+      <c r="D190" t="s">
+        <v>442</v>
+      </c>
+      <c r="E190" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -6431,13 +6454,13 @@
         <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6448,7 +6471,7 @@
         <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6459,7 +6482,7 @@
         <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6470,7 +6493,7 @@
         <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6481,7 +6504,7 @@
         <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6492,7 +6515,7 @@
         <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6503,7 +6526,7 @@
         <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6514,7 +6537,7 @@
         <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6525,7 +6548,7 @@
         <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6536,7 +6559,7 @@
         <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6547,7 +6570,7 @@
         <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6558,7 +6581,7 @@
         <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6569,7 +6592,7 @@
         <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6580,7 +6603,7 @@
         <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6591,7 +6614,7 @@
         <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6602,7 +6625,7 @@
         <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6613,7 +6636,7 @@
         <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6624,7 +6647,7 @@
         <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6635,7 +6658,7 @@
         <v>223</v>
       </c>
       <c r="C19" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6646,7 +6669,7 @@
         <v>233</v>
       </c>
       <c r="C20" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6657,7 +6680,7 @@
         <v>233</v>
       </c>
       <c r="C21" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6668,7 +6691,7 @@
         <v>233</v>
       </c>
       <c r="C22" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6679,7 +6702,7 @@
         <v>233</v>
       </c>
       <c r="C23" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6690,7 +6713,7 @@
         <v>233</v>
       </c>
       <c r="C24" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6701,7 +6724,7 @@
         <v>233</v>
       </c>
       <c r="C25" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6712,7 +6735,7 @@
         <v>233</v>
       </c>
       <c r="C26" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6723,7 +6746,7 @@
         <v>233</v>
       </c>
       <c r="C27" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6734,7 +6757,7 @@
         <v>236</v>
       </c>
       <c r="C28" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6745,7 +6768,7 @@
         <v>236</v>
       </c>
       <c r="C29" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6756,7 +6779,7 @@
         <v>236</v>
       </c>
       <c r="C30" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6767,7 +6790,7 @@
         <v>236</v>
       </c>
       <c r="C31" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6778,7 +6801,7 @@
         <v>236</v>
       </c>
       <c r="C32" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6789,7 +6812,7 @@
         <v>223</v>
       </c>
       <c r="C33" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6800,7 +6823,7 @@
         <v>223</v>
       </c>
       <c r="C34" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6822,7 +6845,7 @@
         <v>262</v>
       </c>
       <c r="C36" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6833,7 +6856,7 @@
         <v>262</v>
       </c>
       <c r="C37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6844,7 +6867,7 @@
         <v>262</v>
       </c>
       <c r="C38" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6855,7 +6878,7 @@
         <v>262</v>
       </c>
       <c r="C39" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6866,7 +6889,7 @@
         <v>223</v>
       </c>
       <c r="C40" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6877,7 +6900,7 @@
         <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6888,7 +6911,7 @@
         <v>233</v>
       </c>
       <c r="C42" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6899,7 +6922,7 @@
         <v>233</v>
       </c>
       <c r="C43" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6910,7 +6933,7 @@
         <v>233</v>
       </c>
       <c r="C44" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6921,7 +6944,7 @@
         <v>233</v>
       </c>
       <c r="C45" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6932,7 +6955,7 @@
         <v>233</v>
       </c>
       <c r="C46" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6943,7 +6966,7 @@
         <v>233</v>
       </c>
       <c r="C47" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6954,7 +6977,7 @@
         <v>233</v>
       </c>
       <c r="C48" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6965,7 +6988,7 @@
         <v>233</v>
       </c>
       <c r="C49" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6976,7 +6999,7 @@
         <v>271</v>
       </c>
       <c r="C50" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -6987,7 +7010,7 @@
         <v>271</v>
       </c>
       <c r="C51" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -6998,7 +7021,7 @@
         <v>271</v>
       </c>
       <c r="C52" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7009,7 +7032,7 @@
         <v>271</v>
       </c>
       <c r="C53" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7017,10 +7040,10 @@
         <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C54" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7028,10 +7051,10 @@
         <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C55" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7039,10 +7062,10 @@
         <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C56" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7050,10 +7073,10 @@
         <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C57" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7061,10 +7084,10 @@
         <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C58" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7072,10 +7095,10 @@
         <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C59" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7083,10 +7106,10 @@
         <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C60" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7094,10 +7117,10 @@
         <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C61" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -7105,10 +7128,10 @@
         <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C62" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -7116,10 +7139,10 @@
         <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C63" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -7127,10 +7150,10 @@
         <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C64" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -7138,10 +7161,10 @@
         <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C65" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7149,10 +7172,10 @@
         <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C66" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7160,10 +7183,10 @@
         <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C67" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7171,10 +7194,10 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C68" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7182,10 +7205,10 @@
         <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C69" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7193,10 +7216,10 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C70" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7207,7 +7230,7 @@
         <v>262</v>
       </c>
       <c r="C71" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7218,7 +7241,7 @@
         <v>262</v>
       </c>
       <c r="C72" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7229,7 +7252,7 @@
         <v>262</v>
       </c>
       <c r="C73" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7240,7 +7263,7 @@
         <v>262</v>
       </c>
       <c r="C74" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7251,7 +7274,7 @@
         <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -7262,7 +7285,7 @@
         <v>223</v>
       </c>
       <c r="C76" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -7270,10 +7293,10 @@
         <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C77" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7281,10 +7304,10 @@
         <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C78" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7292,10 +7315,10 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C79" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7303,10 +7326,10 @@
         <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C80" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -7314,10 +7337,10 @@
         <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C81" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -7325,10 +7348,10 @@
         <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C82" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -7336,10 +7359,10 @@
         <v>45</v>
       </c>
       <c r="B83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C83" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -7347,10 +7370,10 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C84" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -7358,10 +7381,10 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C85" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -7372,7 +7395,7 @@
         <v>244</v>
       </c>
       <c r="C86" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -7383,7 +7406,7 @@
         <v>244</v>
       </c>
       <c r="C87" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -7394,7 +7417,7 @@
         <v>244</v>
       </c>
       <c r="C88" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -7405,7 +7428,7 @@
         <v>244</v>
       </c>
       <c r="C89" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -7416,7 +7439,7 @@
         <v>244</v>
       </c>
       <c r="C90" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -7424,10 +7447,10 @@
         <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C91" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -7435,10 +7458,10 @@
         <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C92" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -7446,10 +7469,10 @@
         <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C93" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -7457,10 +7480,10 @@
         <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C94" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -7468,10 +7491,10 @@
         <v>47</v>
       </c>
       <c r="B95" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C95" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -7479,10 +7502,10 @@
         <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C96" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -7490,10 +7513,10 @@
         <v>47</v>
       </c>
       <c r="B97" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C97" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -7501,10 +7524,10 @@
         <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C98" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -7512,10 +7535,10 @@
         <v>47</v>
       </c>
       <c r="B99" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C99" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -7537,7 +7560,7 @@
         <v>218</v>
       </c>
       <c r="C101" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -7548,7 +7571,7 @@
         <v>218</v>
       </c>
       <c r="C102" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -7559,7 +7582,7 @@
         <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -7570,7 +7593,7 @@
         <v>207</v>
       </c>
       <c r="C104" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -7581,7 +7604,7 @@
         <v>219</v>
       </c>
       <c r="C105" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -7589,10 +7612,10 @@
         <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C106" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -7600,10 +7623,10 @@
         <v>49</v>
       </c>
       <c r="B107" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C107" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/gdcdictionary/tsvs/nodes_schema_midrc.xlsx
+++ b/gdcdictionary/tsvs/nodes_schema_midrc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="541">
   <si>
     <t>&lt;$schema&gt;</t>
   </si>
@@ -877,6 +877,18 @@
     <t>exam_notes</t>
   </si>
   <si>
+    <t>magnetic_field_strength</t>
+  </si>
+  <si>
+    <t>mr_acquisition_type</t>
+  </si>
+  <si>
+    <t>scanning_sequence</t>
+  </si>
+  <si>
+    <t>sequence_name</t>
+  </si>
+  <si>
     <t>test_method</t>
   </si>
   <si>
@@ -1247,6 +1259,27 @@
   </si>
   <si>
     <t>Notes made by the radiologist during the radiography exam.</t>
+  </si>
+  <si>
+    <t>(0018,0087) Magnetic Field Strength</t>
+  </si>
+  <si>
+    <t>(0018, 0023) MR Acquisition Type</t>
+  </si>
+  <si>
+    <t>(0018, 0020) Scanning Sequence</t>
+  </si>
+  <si>
+    <t>(0018, 0024) Sequence Name</t>
+  </si>
+  <si>
+    <t>(0008, 103e) Series Description; a general description of or additional information about the imaging series.</t>
+  </si>
+  <si>
+    <t>(0020, 000e) Series Instance UID; the UID or unique identification code of the imaging series.</t>
+  </si>
+  <si>
+    <t>(0054,1000) Series Type; the text term describing the type of imaging series.</t>
   </si>
   <si>
     <t>The test method used to confirm a condition or produce a measurement.</t>
@@ -3710,7 +3743,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L190"/>
+  <dimension ref="A1:L196"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3762,10 +3795,10 @@
         <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E2" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3776,10 +3809,10 @@
         <v>196</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E3" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3790,10 +3823,10 @@
         <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E4" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3804,10 +3837,10 @@
         <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E5" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3818,10 +3851,10 @@
         <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E6" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3832,10 +3865,10 @@
         <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3846,10 +3879,10 @@
         <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E8" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3860,10 +3893,10 @@
         <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E9" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3874,10 +3907,10 @@
         <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E10" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3888,10 +3921,10 @@
         <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E11" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3902,10 +3935,10 @@
         <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E12" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3916,10 +3949,10 @@
         <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E13" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3930,10 +3963,10 @@
         <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E14" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3944,7 +3977,7 @@
         <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3955,10 +3988,10 @@
         <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E16" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3969,10 +4002,10 @@
         <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E17" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3983,10 +4016,10 @@
         <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E18" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3997,10 +4030,10 @@
         <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E19" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4011,10 +4044,10 @@
         <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E20" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4025,10 +4058,10 @@
         <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E21" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4039,10 +4072,10 @@
         <v>215</v>
       </c>
       <c r="D22" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E22" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4053,10 +4086,10 @@
         <v>216</v>
       </c>
       <c r="D23" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E23" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4067,10 +4100,10 @@
         <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E24" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4081,10 +4114,10 @@
         <v>218</v>
       </c>
       <c r="C25" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E25" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4095,10 +4128,10 @@
         <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E26" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4109,10 +4142,10 @@
         <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E27" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4123,10 +4156,10 @@
         <v>220</v>
       </c>
       <c r="D28" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E28" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4137,10 +4170,10 @@
         <v>221</v>
       </c>
       <c r="D29" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E29" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4151,13 +4184,13 @@
         <v>222</v>
       </c>
       <c r="D30" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E30" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="I30" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4168,10 +4201,10 @@
         <v>223</v>
       </c>
       <c r="D31" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E31" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4182,10 +4215,10 @@
         <v>224</v>
       </c>
       <c r="D32" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E32" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4196,10 +4229,10 @@
         <v>225</v>
       </c>
       <c r="D33" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E33" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4210,10 +4243,10 @@
         <v>226</v>
       </c>
       <c r="D34" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E34" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4224,13 +4257,13 @@
         <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E35" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="I35" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4241,10 +4274,10 @@
         <v>228</v>
       </c>
       <c r="D36" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E36" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4255,10 +4288,10 @@
         <v>229</v>
       </c>
       <c r="D37" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E37" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4269,10 +4302,10 @@
         <v>230</v>
       </c>
       <c r="D38" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E38" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4283,10 +4316,10 @@
         <v>231</v>
       </c>
       <c r="D39" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E39" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4297,10 +4330,10 @@
         <v>232</v>
       </c>
       <c r="D40" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E40" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4311,10 +4344,10 @@
         <v>233</v>
       </c>
       <c r="D41" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E41" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4325,10 +4358,10 @@
         <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E42" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4339,10 +4372,10 @@
         <v>219</v>
       </c>
       <c r="C43" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E43" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4353,10 +4386,10 @@
         <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E44" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4367,10 +4400,10 @@
         <v>220</v>
       </c>
       <c r="D45" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E45" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4381,10 +4414,10 @@
         <v>234</v>
       </c>
       <c r="D46" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E46" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4395,10 +4428,10 @@
         <v>235</v>
       </c>
       <c r="D47" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E47" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4409,10 +4442,10 @@
         <v>236</v>
       </c>
       <c r="D48" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E48" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4423,10 +4456,13 @@
         <v>221</v>
       </c>
       <c r="D49" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E49" t="s">
-        <v>445</v>
+        <v>458</v>
+      </c>
+      <c r="I49" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4437,10 +4473,13 @@
         <v>237</v>
       </c>
       <c r="D50" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E50" t="s">
-        <v>445</v>
+        <v>458</v>
+      </c>
+      <c r="I50" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4451,10 +4490,10 @@
         <v>238</v>
       </c>
       <c r="D51" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E51" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4465,13 +4504,13 @@
         <v>222</v>
       </c>
       <c r="D52" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E52" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="I52" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4482,10 +4521,10 @@
         <v>223</v>
       </c>
       <c r="D53" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E53" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4496,10 +4535,10 @@
         <v>224</v>
       </c>
       <c r="D54" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E54" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4510,10 +4549,10 @@
         <v>225</v>
       </c>
       <c r="D55" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E55" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4524,10 +4563,10 @@
         <v>226</v>
       </c>
       <c r="D56" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E56" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4538,10 +4577,10 @@
         <v>239</v>
       </c>
       <c r="D57" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E57" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4552,13 +4591,13 @@
         <v>227</v>
       </c>
       <c r="D58" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E58" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="I58" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4569,10 +4608,10 @@
         <v>228</v>
       </c>
       <c r="D59" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E59" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4583,10 +4622,10 @@
         <v>229</v>
       </c>
       <c r="D60" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E60" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4597,10 +4636,10 @@
         <v>230</v>
       </c>
       <c r="D61" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E61" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4611,10 +4650,10 @@
         <v>231</v>
       </c>
       <c r="D62" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E62" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4625,13 +4664,13 @@
         <v>240</v>
       </c>
       <c r="D63" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E63" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="I63" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4642,13 +4681,13 @@
         <v>241</v>
       </c>
       <c r="D64" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E64" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="I64" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4659,7 +4698,7 @@
         <v>242</v>
       </c>
       <c r="C65" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4670,7 +4709,7 @@
         <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4681,7 +4720,7 @@
         <v>243</v>
       </c>
       <c r="C67" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4692,7 +4731,7 @@
         <v>244</v>
       </c>
       <c r="C68" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4703,10 +4742,10 @@
         <v>245</v>
       </c>
       <c r="D69" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E69" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4717,10 +4756,10 @@
         <v>246</v>
       </c>
       <c r="D70" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E70" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4731,7 +4770,7 @@
         <v>247</v>
       </c>
       <c r="C71" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4742,10 +4781,10 @@
         <v>248</v>
       </c>
       <c r="D72" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E72" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4756,10 +4795,10 @@
         <v>249</v>
       </c>
       <c r="D73" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E73" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4770,10 +4809,10 @@
         <v>250</v>
       </c>
       <c r="D74" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E74" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4784,10 +4823,10 @@
         <v>251</v>
       </c>
       <c r="D75" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E75" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4798,10 +4837,10 @@
         <v>252</v>
       </c>
       <c r="D76" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E76" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4812,10 +4851,10 @@
         <v>253</v>
       </c>
       <c r="D77" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E77" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4826,10 +4865,10 @@
         <v>254</v>
       </c>
       <c r="D78" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E78" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4840,10 +4879,10 @@
         <v>255</v>
       </c>
       <c r="D79" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E79" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4854,10 +4893,10 @@
         <v>256</v>
       </c>
       <c r="D80" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E80" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4868,10 +4907,10 @@
         <v>257</v>
       </c>
       <c r="D81" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E81" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4882,10 +4921,10 @@
         <v>258</v>
       </c>
       <c r="D82" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E82" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4896,10 +4935,10 @@
         <v>259</v>
       </c>
       <c r="D83" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E83" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4910,10 +4949,10 @@
         <v>260</v>
       </c>
       <c r="D84" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E84" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4924,10 +4963,10 @@
         <v>261</v>
       </c>
       <c r="D85" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E85" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4938,10 +4977,10 @@
         <v>218</v>
       </c>
       <c r="C86" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E86" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4952,10 +4991,10 @@
         <v>219</v>
       </c>
       <c r="C87" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E87" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4966,10 +5005,10 @@
         <v>207</v>
       </c>
       <c r="C88" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E88" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4980,10 +5019,10 @@
         <v>220</v>
       </c>
       <c r="D89" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E89" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4994,10 +5033,10 @@
         <v>221</v>
       </c>
       <c r="D90" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E90" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5008,10 +5047,10 @@
         <v>262</v>
       </c>
       <c r="D91" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E91" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5022,13 +5061,13 @@
         <v>222</v>
       </c>
       <c r="D92" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E92" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="I92" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5039,13 +5078,13 @@
         <v>263</v>
       </c>
       <c r="D93" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E93" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="I93" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5056,10 +5095,10 @@
         <v>223</v>
       </c>
       <c r="D94" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E94" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5070,10 +5109,10 @@
         <v>224</v>
       </c>
       <c r="D95" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E95" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5084,10 +5123,10 @@
         <v>225</v>
       </c>
       <c r="D96" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E96" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5098,10 +5137,10 @@
         <v>226</v>
       </c>
       <c r="D97" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E97" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5112,13 +5151,13 @@
         <v>227</v>
       </c>
       <c r="D98" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E98" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="I98" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5129,10 +5168,10 @@
         <v>228</v>
       </c>
       <c r="D99" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E99" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5143,10 +5182,10 @@
         <v>229</v>
       </c>
       <c r="D100" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E100" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -5157,10 +5196,10 @@
         <v>230</v>
       </c>
       <c r="D101" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E101" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -5171,10 +5210,10 @@
         <v>231</v>
       </c>
       <c r="D102" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E102" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -5185,10 +5224,10 @@
         <v>233</v>
       </c>
       <c r="D103" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E103" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5199,10 +5238,10 @@
         <v>264</v>
       </c>
       <c r="D104" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E104" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5213,10 +5252,10 @@
         <v>265</v>
       </c>
       <c r="D105" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E105" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -5227,10 +5266,10 @@
         <v>266</v>
       </c>
       <c r="D106" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E106" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5241,13 +5280,13 @@
         <v>267</v>
       </c>
       <c r="D107" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E107" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="G107">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -5261,10 +5300,10 @@
         <v>268</v>
       </c>
       <c r="D108" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E108" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -5275,10 +5314,10 @@
         <v>269</v>
       </c>
       <c r="D109" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E109" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -5289,10 +5328,10 @@
         <v>270</v>
       </c>
       <c r="D110" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E110" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5303,10 +5342,10 @@
         <v>271</v>
       </c>
       <c r="D111" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E111" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -5317,10 +5356,10 @@
         <v>272</v>
       </c>
       <c r="D112" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E112" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5331,10 +5370,10 @@
         <v>273</v>
       </c>
       <c r="D113" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E113" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5345,10 +5384,10 @@
         <v>274</v>
       </c>
       <c r="D114" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E114" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5359,10 +5398,10 @@
         <v>275</v>
       </c>
       <c r="D115" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E115" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5373,10 +5412,10 @@
         <v>276</v>
       </c>
       <c r="D116" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E116" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5387,10 +5426,10 @@
         <v>277</v>
       </c>
       <c r="D117" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E117" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5401,10 +5440,10 @@
         <v>278</v>
       </c>
       <c r="D118" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E118" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5415,10 +5454,10 @@
         <v>279</v>
       </c>
       <c r="D119" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E119" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5429,10 +5468,10 @@
         <v>280</v>
       </c>
       <c r="D120" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E120" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5443,10 +5482,10 @@
         <v>281</v>
       </c>
       <c r="D121" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E121" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5457,10 +5496,10 @@
         <v>282</v>
       </c>
       <c r="D122" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E122" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5471,10 +5510,10 @@
         <v>283</v>
       </c>
       <c r="D123" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E123" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5485,10 +5524,10 @@
         <v>284</v>
       </c>
       <c r="D124" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E124" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5499,10 +5538,10 @@
         <v>218</v>
       </c>
       <c r="C125" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E125" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5513,10 +5552,10 @@
         <v>219</v>
       </c>
       <c r="C126" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E126" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5527,10 +5566,10 @@
         <v>207</v>
       </c>
       <c r="C127" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E127" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5541,13 +5580,13 @@
         <v>220</v>
       </c>
       <c r="D128" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E128" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>42</v>
       </c>
@@ -5555,13 +5594,13 @@
         <v>221</v>
       </c>
       <c r="D129" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E129" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>42</v>
       </c>
@@ -5569,13 +5608,13 @@
         <v>262</v>
       </c>
       <c r="D130" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E130" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>42</v>
       </c>
@@ -5583,16 +5622,16 @@
         <v>222</v>
       </c>
       <c r="D131" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E131" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="I131" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>42</v>
       </c>
@@ -5600,16 +5639,16 @@
         <v>263</v>
       </c>
       <c r="D132" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E132" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="I132" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>42</v>
       </c>
@@ -5617,296 +5656,299 @@
         <v>223</v>
       </c>
       <c r="D133" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E133" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>42</v>
       </c>
       <c r="B134" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="D134" t="s">
-        <v>352</v>
+        <v>413</v>
       </c>
       <c r="E134" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>42</v>
       </c>
       <c r="B135" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D135" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E135" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>42</v>
       </c>
       <c r="B136" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D136" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E136" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>42</v>
       </c>
       <c r="B137" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D137" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E137" t="s">
-        <v>447</v>
-      </c>
-      <c r="I137" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>42</v>
       </c>
       <c r="B138" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="D138" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="E138" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>42</v>
       </c>
       <c r="B139" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D139" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E139" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
+        <v>458</v>
+      </c>
+      <c r="I139" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>42</v>
       </c>
       <c r="B140" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="D140" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="E140" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>42</v>
       </c>
       <c r="B141" t="s">
+        <v>288</v>
+      </c>
+      <c r="D141" t="s">
+        <v>416</v>
+      </c>
+      <c r="E141" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>42</v>
+      </c>
+      <c r="B142" t="s">
+        <v>228</v>
+      </c>
+      <c r="D142" t="s">
+        <v>417</v>
+      </c>
+      <c r="E142" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>42</v>
+      </c>
+      <c r="B143" t="s">
+        <v>229</v>
+      </c>
+      <c r="D143" t="s">
+        <v>418</v>
+      </c>
+      <c r="E143" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>42</v>
+      </c>
+      <c r="B144" t="s">
+        <v>230</v>
+      </c>
+      <c r="D144" t="s">
+        <v>419</v>
+      </c>
+      <c r="E144" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" t="s">
+        <v>42</v>
+      </c>
+      <c r="B145" t="s">
         <v>231</v>
       </c>
-      <c r="D141" t="s">
-        <v>359</v>
-      </c>
-      <c r="E141" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
-      <c r="A142" t="s">
+      <c r="D145" t="s">
+        <v>363</v>
+      </c>
+      <c r="E145" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" t="s">
+        <v>42</v>
+      </c>
+      <c r="B146" t="s">
+        <v>240</v>
+      </c>
+      <c r="D146" t="s">
+        <v>372</v>
+      </c>
+      <c r="E146" t="s">
+        <v>458</v>
+      </c>
+      <c r="I146" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" t="s">
+        <v>42</v>
+      </c>
+      <c r="B147" t="s">
+        <v>241</v>
+      </c>
+      <c r="D147" t="s">
+        <v>373</v>
+      </c>
+      <c r="E147" t="s">
+        <v>458</v>
+      </c>
+      <c r="I147" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" t="s">
         <v>43</v>
-      </c>
-      <c r="B142" t="s">
-        <v>285</v>
-      </c>
-      <c r="D142" t="s">
-        <v>409</v>
-      </c>
-      <c r="E142" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10">
-      <c r="A143" t="s">
-        <v>44</v>
-      </c>
-      <c r="B143" t="s">
-        <v>246</v>
-      </c>
-      <c r="E143" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10">
-      <c r="A144" t="s">
-        <v>44</v>
-      </c>
-      <c r="B144" t="s">
-        <v>112</v>
-      </c>
-      <c r="C144" t="s">
-        <v>323</v>
-      </c>
-      <c r="J144" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
-      <c r="A145" t="s">
-        <v>44</v>
-      </c>
-      <c r="B145" t="s">
-        <v>286</v>
-      </c>
-      <c r="D145" t="s">
-        <v>410</v>
-      </c>
-      <c r="E145" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" t="s">
-        <v>44</v>
-      </c>
-      <c r="B146" t="s">
-        <v>287</v>
-      </c>
-      <c r="D146" t="s">
-        <v>411</v>
-      </c>
-      <c r="E146" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" t="s">
-        <v>45</v>
-      </c>
-      <c r="B147" t="s">
-        <v>288</v>
-      </c>
-      <c r="D147" t="s">
-        <v>412</v>
-      </c>
-      <c r="E147" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" t="s">
-        <v>45</v>
       </c>
       <c r="B148" t="s">
         <v>289</v>
       </c>
       <c r="D148" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="E148" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B149" t="s">
+        <v>246</v>
+      </c>
+      <c r="E149" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" t="s">
+        <v>44</v>
+      </c>
+      <c r="B150" t="s">
+        <v>112</v>
+      </c>
+      <c r="C150" t="s">
+        <v>327</v>
+      </c>
+      <c r="J150" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" t="s">
+        <v>44</v>
+      </c>
+      <c r="B151" t="s">
         <v>290</v>
       </c>
-      <c r="D149" t="s">
-        <v>414</v>
-      </c>
-      <c r="E149" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" t="s">
-        <v>45</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="D151" t="s">
+        <v>421</v>
+      </c>
+      <c r="E151" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" t="s">
+        <v>44</v>
+      </c>
+      <c r="B152" t="s">
         <v>291</v>
       </c>
-      <c r="D150" t="s">
-        <v>415</v>
-      </c>
-      <c r="E150" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" t="s">
-        <v>45</v>
-      </c>
-      <c r="B151" t="s">
-        <v>292</v>
-      </c>
-      <c r="D151" t="s">
-        <v>416</v>
-      </c>
-      <c r="E151" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" t="s">
-        <v>45</v>
-      </c>
-      <c r="B152" t="s">
-        <v>287</v>
-      </c>
       <c r="D152" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E152" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" t="s">
         <v>45</v>
       </c>
       <c r="B153" t="s">
-        <v>112</v>
-      </c>
-      <c r="C153" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="D153" t="s">
-        <v>418</v>
-      </c>
-      <c r="J153" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
+        <v>423</v>
+      </c>
+      <c r="E153" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
         <v>45</v>
       </c>
@@ -5914,16 +5956,13 @@
         <v>293</v>
       </c>
       <c r="D154" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="E154" t="s">
-        <v>445</v>
-      </c>
-      <c r="K154" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" t="s">
         <v>45</v>
       </c>
@@ -5931,13 +5970,13 @@
         <v>294</v>
       </c>
       <c r="D155" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E155" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" t="s">
         <v>45</v>
       </c>
@@ -5945,72 +5984,72 @@
         <v>295</v>
       </c>
       <c r="D156" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="E156" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" t="s">
         <v>45</v>
       </c>
       <c r="B157" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D157" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="E157" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" t="s">
         <v>45</v>
       </c>
       <c r="B158" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D158" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E158" t="s">
-        <v>448</v>
-      </c>
-      <c r="L158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
         <v>45</v>
       </c>
       <c r="B159" t="s">
-        <v>297</v>
+        <v>112</v>
+      </c>
+      <c r="C159" t="s">
+        <v>327</v>
       </c>
       <c r="D159" t="s">
-        <v>424</v>
-      </c>
-      <c r="E159" t="s">
-        <v>448</v>
-      </c>
-      <c r="L159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
+        <v>429</v>
+      </c>
+      <c r="J159" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" t="s">
         <v>45</v>
       </c>
       <c r="B160" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D160" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="E160" t="s">
-        <v>445</v>
+        <v>456</v>
+      </c>
+      <c r="K160" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -6018,13 +6057,13 @@
         <v>45</v>
       </c>
       <c r="B161" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D161" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E161" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -6032,16 +6071,13 @@
         <v>45</v>
       </c>
       <c r="B162" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="D162" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E162" t="s">
-        <v>444</v>
-      </c>
-      <c r="L162" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -6049,139 +6085,148 @@
         <v>45</v>
       </c>
       <c r="B163" t="s">
-        <v>246</v>
+        <v>290</v>
+      </c>
+      <c r="D163" t="s">
+        <v>433</v>
       </c>
       <c r="E163" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B164" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="D164" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="E164" t="s">
-        <v>445</v>
+        <v>459</v>
+      </c>
+      <c r="L164" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B165" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="D165" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="E165" t="s">
-        <v>445</v>
+        <v>459</v>
+      </c>
+      <c r="L165" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B166" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="D166" t="s">
-        <v>361</v>
+        <v>436</v>
       </c>
       <c r="E166" t="s">
-        <v>447</v>
-      </c>
-      <c r="I166" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B167" t="s">
-        <v>300</v>
-      </c>
-      <c r="C167" t="s">
-        <v>326</v>
+        <v>303</v>
+      </c>
+      <c r="D167" t="s">
+        <v>437</v>
       </c>
       <c r="E167" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B168" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="D168" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="E168" t="s">
-        <v>445</v>
+        <v>455</v>
+      </c>
+      <c r="L168" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="169" spans="1:12">
       <c r="A169" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B169" t="s">
-        <v>302</v>
-      </c>
-      <c r="C169" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
       <c r="E169" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B170" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="D170" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="E170" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B171" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="D171" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="E171" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B172" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="D172" t="s">
-        <v>431</v>
+        <v>365</v>
       </c>
       <c r="E172" t="s">
-        <v>445</v>
+        <v>458</v>
+      </c>
+      <c r="I172" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -6189,13 +6234,13 @@
         <v>47</v>
       </c>
       <c r="B173" t="s">
-        <v>306</v>
-      </c>
-      <c r="D173" t="s">
-        <v>432</v>
+        <v>304</v>
+      </c>
+      <c r="C173" t="s">
+        <v>330</v>
       </c>
       <c r="E173" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -6203,13 +6248,13 @@
         <v>47</v>
       </c>
       <c r="B174" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D174" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E174" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -6217,13 +6262,13 @@
         <v>47</v>
       </c>
       <c r="B175" t="s">
-        <v>308</v>
-      </c>
-      <c r="D175" t="s">
-        <v>434</v>
+        <v>306</v>
+      </c>
+      <c r="C175" t="s">
+        <v>331</v>
       </c>
       <c r="E175" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -6231,97 +6276,97 @@
         <v>47</v>
       </c>
       <c r="B176" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D176" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E176" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>218</v>
-      </c>
-      <c r="C177" t="s">
-        <v>320</v>
+        <v>308</v>
+      </c>
+      <c r="D177" t="s">
+        <v>441</v>
       </c>
       <c r="E177" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B178" t="s">
-        <v>219</v>
-      </c>
-      <c r="C178" t="s">
-        <v>321</v>
+        <v>309</v>
+      </c>
+      <c r="D178" t="s">
+        <v>442</v>
       </c>
       <c r="E178" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B179" t="s">
-        <v>207</v>
-      </c>
-      <c r="C179" t="s">
-        <v>322</v>
+        <v>310</v>
+      </c>
+      <c r="D179" t="s">
+        <v>443</v>
       </c>
       <c r="E179" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B180" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D180" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="E180" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B181" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D181" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="E181" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B182" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D182" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E182" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6329,94 +6374,97 @@
         <v>48</v>
       </c>
       <c r="B183" t="s">
-        <v>313</v>
-      </c>
-      <c r="D183" t="s">
-        <v>439</v>
+        <v>218</v>
+      </c>
+      <c r="C183" t="s">
+        <v>324</v>
       </c>
       <c r="E183" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B184" t="s">
-        <v>246</v>
+        <v>219</v>
+      </c>
+      <c r="C184" t="s">
+        <v>325</v>
       </c>
       <c r="E184" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B185" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C185" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E185" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B186" t="s">
-        <v>207</v>
-      </c>
-      <c r="C186" t="s">
-        <v>322</v>
+        <v>314</v>
+      </c>
+      <c r="D186" t="s">
+        <v>447</v>
       </c>
       <c r="E186" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B187" t="s">
-        <v>219</v>
-      </c>
-      <c r="C187" t="s">
-        <v>321</v>
+        <v>315</v>
+      </c>
+      <c r="D187" t="s">
+        <v>448</v>
       </c>
       <c r="E187" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B188" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D188" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="E188" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B189" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D189" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="E189" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6424,13 +6472,94 @@
         <v>49</v>
       </c>
       <c r="B190" t="s">
-        <v>316</v>
-      </c>
-      <c r="D190" t="s">
-        <v>442</v>
+        <v>246</v>
       </c>
       <c r="E190" t="s">
-        <v>445</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>49</v>
+      </c>
+      <c r="B191" t="s">
+        <v>218</v>
+      </c>
+      <c r="C191" t="s">
+        <v>324</v>
+      </c>
+      <c r="E191" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>49</v>
+      </c>
+      <c r="B192" t="s">
+        <v>207</v>
+      </c>
+      <c r="C192" t="s">
+        <v>326</v>
+      </c>
+      <c r="E192" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>49</v>
+      </c>
+      <c r="B193" t="s">
+        <v>219</v>
+      </c>
+      <c r="C193" t="s">
+        <v>325</v>
+      </c>
+      <c r="E193" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>49</v>
+      </c>
+      <c r="B194" t="s">
+        <v>318</v>
+      </c>
+      <c r="D194" t="s">
+        <v>451</v>
+      </c>
+      <c r="E194" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>49</v>
+      </c>
+      <c r="B195" t="s">
+        <v>319</v>
+      </c>
+      <c r="D195" t="s">
+        <v>452</v>
+      </c>
+      <c r="E195" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>49</v>
+      </c>
+      <c r="B196" t="s">
+        <v>320</v>
+      </c>
+      <c r="D196" t="s">
+        <v>453</v>
+      </c>
+      <c r="E196" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -6454,13 +6583,13 @@
         <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6471,7 +6600,7 @@
         <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6482,7 +6611,7 @@
         <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6493,7 +6622,7 @@
         <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6504,7 +6633,7 @@
         <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6515,7 +6644,7 @@
         <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6526,7 +6655,7 @@
         <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6537,7 +6666,7 @@
         <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6548,7 +6677,7 @@
         <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6559,7 +6688,7 @@
         <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6570,7 +6699,7 @@
         <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6581,7 +6710,7 @@
         <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6592,7 +6721,7 @@
         <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6603,7 +6732,7 @@
         <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6614,7 +6743,7 @@
         <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6625,7 +6754,7 @@
         <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6636,7 +6765,7 @@
         <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6647,7 +6776,7 @@
         <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6658,7 +6787,7 @@
         <v>223</v>
       </c>
       <c r="C19" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6669,7 +6798,7 @@
         <v>233</v>
       </c>
       <c r="C20" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6680,7 +6809,7 @@
         <v>233</v>
       </c>
       <c r="C21" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6691,7 +6820,7 @@
         <v>233</v>
       </c>
       <c r="C22" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6702,7 +6831,7 @@
         <v>233</v>
       </c>
       <c r="C23" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6713,7 +6842,7 @@
         <v>233</v>
       </c>
       <c r="C24" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6724,7 +6853,7 @@
         <v>233</v>
       </c>
       <c r="C25" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6735,7 +6864,7 @@
         <v>233</v>
       </c>
       <c r="C26" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6746,7 +6875,7 @@
         <v>233</v>
       </c>
       <c r="C27" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6757,7 +6886,7 @@
         <v>236</v>
       </c>
       <c r="C28" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6768,7 +6897,7 @@
         <v>236</v>
       </c>
       <c r="C29" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6779,7 +6908,7 @@
         <v>236</v>
       </c>
       <c r="C30" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6790,7 +6919,7 @@
         <v>236</v>
       </c>
       <c r="C31" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6801,7 +6930,7 @@
         <v>236</v>
       </c>
       <c r="C32" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6812,7 +6941,7 @@
         <v>223</v>
       </c>
       <c r="C33" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6823,7 +6952,7 @@
         <v>223</v>
       </c>
       <c r="C34" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6845,7 +6974,7 @@
         <v>262</v>
       </c>
       <c r="C36" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6856,7 +6985,7 @@
         <v>262</v>
       </c>
       <c r="C37" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6867,7 +6996,7 @@
         <v>262</v>
       </c>
       <c r="C38" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6878,7 +7007,7 @@
         <v>262</v>
       </c>
       <c r="C39" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6889,7 +7018,7 @@
         <v>223</v>
       </c>
       <c r="C40" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6900,7 +7029,7 @@
         <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6911,7 +7040,7 @@
         <v>233</v>
       </c>
       <c r="C42" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6922,7 +7051,7 @@
         <v>233</v>
       </c>
       <c r="C43" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6933,7 +7062,7 @@
         <v>233</v>
       </c>
       <c r="C44" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6944,7 +7073,7 @@
         <v>233</v>
       </c>
       <c r="C45" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6955,7 +7084,7 @@
         <v>233</v>
       </c>
       <c r="C46" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6966,7 +7095,7 @@
         <v>233</v>
       </c>
       <c r="C47" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6977,7 +7106,7 @@
         <v>233</v>
       </c>
       <c r="C48" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6988,7 +7117,7 @@
         <v>233</v>
       </c>
       <c r="C49" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6999,7 +7128,7 @@
         <v>271</v>
       </c>
       <c r="C50" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7010,7 +7139,7 @@
         <v>271</v>
       </c>
       <c r="C51" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7021,7 +7150,7 @@
         <v>271</v>
       </c>
       <c r="C52" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7032,7 +7161,7 @@
         <v>271</v>
       </c>
       <c r="C53" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7043,7 +7172,7 @@
         <v>276</v>
       </c>
       <c r="C54" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7054,7 +7183,7 @@
         <v>277</v>
       </c>
       <c r="C55" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7065,7 +7194,7 @@
         <v>277</v>
       </c>
       <c r="C56" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7076,7 +7205,7 @@
         <v>277</v>
       </c>
       <c r="C57" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7087,7 +7216,7 @@
         <v>279</v>
       </c>
       <c r="C58" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7098,7 +7227,7 @@
         <v>279</v>
       </c>
       <c r="C59" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7109,7 +7238,7 @@
         <v>279</v>
       </c>
       <c r="C60" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7120,7 +7249,7 @@
         <v>279</v>
       </c>
       <c r="C61" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -7131,7 +7260,7 @@
         <v>279</v>
       </c>
       <c r="C62" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -7142,7 +7271,7 @@
         <v>279</v>
       </c>
       <c r="C63" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -7153,7 +7282,7 @@
         <v>279</v>
       </c>
       <c r="C64" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -7164,7 +7293,7 @@
         <v>279</v>
       </c>
       <c r="C65" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7175,7 +7304,7 @@
         <v>279</v>
       </c>
       <c r="C66" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7186,7 +7315,7 @@
         <v>279</v>
       </c>
       <c r="C67" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7197,7 +7326,7 @@
         <v>280</v>
       </c>
       <c r="C68" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7208,7 +7337,7 @@
         <v>280</v>
       </c>
       <c r="C69" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7219,7 +7348,7 @@
         <v>280</v>
       </c>
       <c r="C70" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7230,7 +7359,7 @@
         <v>262</v>
       </c>
       <c r="C71" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7241,7 +7370,7 @@
         <v>262</v>
       </c>
       <c r="C72" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7252,7 +7381,7 @@
         <v>262</v>
       </c>
       <c r="C73" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7263,7 +7392,7 @@
         <v>262</v>
       </c>
       <c r="C74" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7274,7 +7403,7 @@
         <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -7285,7 +7414,7 @@
         <v>223</v>
       </c>
       <c r="C76" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -7293,10 +7422,10 @@
         <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C77" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7304,10 +7433,10 @@
         <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C78" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7315,10 +7444,10 @@
         <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C79" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7326,10 +7455,10 @@
         <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C80" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -7337,10 +7466,10 @@
         <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C81" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -7348,10 +7477,10 @@
         <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C82" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -7359,10 +7488,10 @@
         <v>45</v>
       </c>
       <c r="B83" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C83" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -7370,10 +7499,10 @@
         <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C84" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -7381,10 +7510,10 @@
         <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C85" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -7395,7 +7524,7 @@
         <v>244</v>
       </c>
       <c r="C86" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -7406,7 +7535,7 @@
         <v>244</v>
       </c>
       <c r="C87" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -7417,7 +7546,7 @@
         <v>244</v>
       </c>
       <c r="C88" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -7428,7 +7557,7 @@
         <v>244</v>
       </c>
       <c r="C89" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -7439,7 +7568,7 @@
         <v>244</v>
       </c>
       <c r="C90" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -7447,10 +7576,10 @@
         <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C91" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -7458,10 +7587,10 @@
         <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C92" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -7469,10 +7598,10 @@
         <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C93" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -7480,10 +7609,10 @@
         <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C94" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -7491,10 +7620,10 @@
         <v>47</v>
       </c>
       <c r="B95" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C95" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -7502,10 +7631,10 @@
         <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C96" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -7513,10 +7642,10 @@
         <v>47</v>
       </c>
       <c r="B97" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C97" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -7524,10 +7653,10 @@
         <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C98" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -7535,10 +7664,10 @@
         <v>47</v>
       </c>
       <c r="B99" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C99" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -7560,7 +7689,7 @@
         <v>218</v>
       </c>
       <c r="C101" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -7571,7 +7700,7 @@
         <v>218</v>
       </c>
       <c r="C102" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -7582,7 +7711,7 @@
         <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -7593,7 +7722,7 @@
         <v>207</v>
       </c>
       <c r="C104" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -7604,7 +7733,7 @@
         <v>219</v>
       </c>
       <c r="C105" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -7612,10 +7741,10 @@
         <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C106" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -7623,10 +7752,10 @@
         <v>49</v>
       </c>
       <c r="B107" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C107" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
